--- a/literature-management.xlsx
+++ b/literature-management.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jay/phd/papers/sok - a survey on software power monitoring tools/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1F78A48-02CA-0B44-A71A-CE953EEA486D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0013F21-7523-A742-8072-2B376A976385}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-10280" yWindow="-28140" windowWidth="50880" windowHeight="27980" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-10280" yWindow="-28140" windowWidth="50880" windowHeight="27980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tools" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="111">
   <si>
     <t>Tool_ID</t>
   </si>
@@ -45,72 +45,21 @@
     <t>Methodology and accuracy</t>
   </si>
   <si>
-    <t>Calibration requirements</t>
-  </si>
-  <si>
-    <t>Measurement approach</t>
-  </si>
-  <si>
-    <t>Baseline modelled</t>
-  </si>
-  <si>
-    <t>Temporal resolution</t>
-  </si>
-  <si>
-    <t>Accuracy validation</t>
-  </si>
-  <si>
     <t>Repeatability</t>
   </si>
   <si>
     <t>Invasiveness and usability</t>
   </si>
   <si>
-    <t>Code modification</t>
-  </si>
-  <si>
-    <t>Runtime overhead</t>
-  </si>
-  <si>
-    <t>Deployment complexity</t>
-  </si>
-  <si>
-    <t>Bare-metal suppor</t>
-  </si>
-  <si>
-    <t>Virtual machines</t>
-  </si>
-  <si>
     <t>Containers</t>
   </si>
   <si>
-    <t>Kubernetes integration</t>
-  </si>
-  <si>
-    <t>Multi-tenancy awareness</t>
-  </si>
-  <si>
-    <t>Cloud provider compatibility</t>
-  </si>
-  <si>
     <t>Execution environment support</t>
   </si>
   <si>
     <t>Maturity and ecosystem</t>
   </si>
   <si>
-    <t>Availability and licensing</t>
-  </si>
-  <si>
-    <t>Maintenance status</t>
-  </si>
-  <si>
-    <t>Documentation quality</t>
-  </si>
-  <si>
-    <t>Community adoption</t>
-  </si>
-  <si>
     <t>References</t>
   </si>
   <si>
@@ -159,9 +108,6 @@
     <t>Measurement Targets</t>
   </si>
   <si>
-    <t>GMT</t>
-  </si>
-  <si>
     <t>Green Metric Tool</t>
   </si>
   <si>
@@ -174,21 +120,12 @@
     <t>Selected</t>
   </si>
   <si>
-    <t>KEP</t>
-  </si>
-  <si>
     <t>Kepler</t>
   </si>
   <si>
     <t>Scaphandre</t>
   </si>
   <si>
-    <t>SCA</t>
-  </si>
-  <si>
-    <t>Snawballing : Cited by (Centofanti et al. 2024)</t>
-  </si>
-  <si>
     <t>Centofanti, Carlo, José Santos, Venkateswarlu Gudepu, and Koteswararao Kondepu. 2024. ‘Impact of Power Consumption in Containerized Clouds: A Comprehensive Analysis of Open-Source Power Measurement Tools’. Computer Networks 245 (May): 110371. https://doi.org/10.1016/j.comnet.2024.110371.</t>
   </si>
   <si>
@@ -198,16 +135,13 @@
     <t>na</t>
   </si>
   <si>
+    <t>Kepler is a tool to collect fine‑grained energy and power metrics (e.g., CPU energy, memory, power usage) by monitoring containers, pods, and nodes in Kubernetes via eBPF, RAPL, cgroups and exporting them as Prometheus metrics, with support for multiple metric sources and attribution to workloads.</t>
+  </si>
+  <si>
     <t>Prometheus</t>
   </si>
   <si>
-    <t>PRO</t>
-  </si>
-  <si>
     <t>websitecarbon.com</t>
-  </si>
-  <si>
-    <t>WC</t>
   </si>
   <si>
     <t>RAPL</t>
@@ -273,26 +207,12 @@
  "Software energy monitoring"</t>
   </si>
   <si>
-    <t>The GMT is a tool allowing to collect system-level metrics such as (e.g., CPU_Energy, Network_IO, …)
- through pluggable "metric providers" (e.g. RAPL reader, external power meter, ...) and to
- allocate them to software by running those in containers and monitoring cgroup activity.</t>
-  </si>
-  <si>
-    <t>Kepler is a tool to collect fine‑grained energy and power metrics (e.g., CPU energy, memory, power usage)
- by monitoring containers, pods, and nodes in Kubernetes via eBPF, RAPL, cgroups and exporting them as 
-Prometheus metrics, with support for multiple metric sources and attribution to workloads.</t>
-  </si>
-  <si>
     <t>yes</t>
   </si>
   <si>
     <t xml:space="preserve">Model-based </t>
   </si>
   <si>
-    <t>e-Surgeon is a software-based energy profiling framework that estimates fine-grained (method-level) power consumption of Java applications at runtime.
- It combines operating-system-level hardware monitoring (PowerAPI) with either bytecode instrumentation or statistical sampling (Jalen), using analytical and empirical power models to estimate application energy consumption without relying on external power meters.</t>
-  </si>
-  <si>
     <t>CPU</t>
   </si>
   <si>
@@ -314,16 +234,159 @@
     <t>✗</t>
   </si>
   <si>
-    <t>Power/Energy</t>
-  </si>
-  <si>
     <t>CO2e</t>
   </si>
   <si>
-    <t>Network I/O</t>
-  </si>
-  <si>
     <t>Class Level, Method Level</t>
+  </si>
+  <si>
+    <t>ARM</t>
+  </si>
+  <si>
+    <t>Intel</t>
+  </si>
+  <si>
+    <t>Target Devices</t>
+  </si>
+  <si>
+    <t>Supported ISA</t>
+  </si>
+  <si>
+    <t>x86</t>
+  </si>
+  <si>
+    <t>RISC-V</t>
+  </si>
+  <si>
+    <t>Server</t>
+  </si>
+  <si>
+    <t>Temporal 
+resolution</t>
+  </si>
+  <si>
+    <t>Baseline
+modelled</t>
+  </si>
+  <si>
+    <t>Measurement 
+approach</t>
+  </si>
+  <si>
+    <t>Calibration 
+requirements</t>
+  </si>
+  <si>
+    <t>Accuracy 
+validation</t>
+  </si>
+  <si>
+    <t>Code 
+modification</t>
+  </si>
+  <si>
+    <t>Runtime 
+overhead</t>
+  </si>
+  <si>
+    <t>Deployment 
+complexity</t>
+  </si>
+  <si>
+    <t>Virtual 
+machines</t>
+  </si>
+  <si>
+    <t>Kubernetes 
+integration</t>
+  </si>
+  <si>
+    <t>Multi-tenancy 
+awareness</t>
+  </si>
+  <si>
+    <t>Cloud provider 
+compatibility</t>
+  </si>
+  <si>
+    <t>Availability 
+and licensing</t>
+  </si>
+  <si>
+    <t>Maintenance 
+status</t>
+  </si>
+  <si>
+    <t>Documentation 
+quality</t>
+  </si>
+  <si>
+    <t>Community 
+adoption</t>
+  </si>
+  <si>
+    <t>Architecture-
+Agnostic</t>
+  </si>
+  <si>
+    <t>Embedded 
+System</t>
+  </si>
+  <si>
+    <t>Mobile 
+Device</t>
+  </si>
+  <si>
+    <t>Desktop/
+Laptop</t>
+  </si>
+  <si>
+    <t>Power/
+Energy</t>
+  </si>
+  <si>
+    <t>Network 
+I/O</t>
+  </si>
+  <si>
+    <t>External
+Power Meter</t>
+  </si>
+  <si>
+    <t>Hardware-Exposed
+Energy Interface</t>
+  </si>
+  <si>
+    <t>Model
+-based</t>
+  </si>
+  <si>
+    <t>The GMT is a tool allowing to collect system-level metrics such as (e.g., CPU_Energy, Network_IO, …)  through pluggable "metric providers" (e.g. RAPL reader, external power meter, ...) and to allocate them to software by running those in containers and monitoring cgroup activity.</t>
+  </si>
+  <si>
+    <t>e-Surgeon is a software-based energy profiling framework that estimates fine-grained (method-level) power consumption of Java applications at runtime. It combines operating-system-level hardware monitoring (PowerAPI) with either bytecode instrumentation or statistical sampling (Jalen), using analytical and empirical power models to estimate application energy consumption without relying on external power meters.</t>
+  </si>
+  <si>
+    <t>Khan, Kashif Nizam, Mikael Hirki, Tapio Niemi, Jukka K. Nurminen, and Zhonghong Ou. 2018. ‘RAPL in Action: Experiences in Using RAPL for Power Measurements’. ACM Trans. Model. Perform. Eval. Comput. Syst. 3 (2): 9:1-9:26. https://doi.org/10.1145/3177754.
+Chekushkin, Artem, Vitaly Egunov, Alla G. Kravets, and Pavel Kravchenya. 2026. ‘Software Methods for Energy Consumption Evaluation’. In Frontiers of Industrial Cyber-Physics, edited by Alla G. Kravets, Alexander A. Bolshakov, and Maxim V. Shcherbakov. Springer Nature Switzerland. https://doi.org/10.1007/978-3-032-02717-7_8.</t>
+  </si>
+  <si>
+    <t>RAPL (Running Average Power Limit) is a hardware-level energy monitoring and power-capping interface introduced by Intel for its processors. It exposes energy consumption estimates via Model-Specific Registers (MSRs), allowing software to read energy usage for specific hardware domains.</t>
+  </si>
+  <si>
+    <t>Seeds (Extensively used in scientific litterature and as a primitive for other tools such as GMT Kepler,…</t>
+  </si>
+  <si>
+    <t>2010-2011</t>
+  </si>
+  <si>
+    <t>Noureddine, Adel, Romain Rouvoy, and Lionel Seinturier.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (Centofanti et al. 2024)</t>
+  </si>
+  <si>
+    <t>Backward Snawballing</t>
   </si>
 </sst>
 </file>
@@ -552,7 +615,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -574,12 +637,6 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -658,6 +715,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -679,17 +739,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -698,11 +756,80 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1027,518 +1154,523 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:K43"/>
+  <dimension ref="B2:K47"/>
   <sheetViews>
-    <sheetView zoomScale="116" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7" style="33" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.83203125" style="33" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.33203125" style="33" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="240.83203125" style="41" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.5" style="33" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.6640625" style="33" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="44.83203125" style="33" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.83203125" style="33" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.1640625" style="33" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.33203125" style="33" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="119.5" style="33" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="8.83203125" style="33"/>
+    <col min="1" max="1" width="7" style="31" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.83203125" style="31" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" style="31" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="134.5" style="40" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" style="31" customWidth="1"/>
+    <col min="6" max="6" width="29" style="37" customWidth="1"/>
+    <col min="7" max="7" width="29.33203125" style="37" customWidth="1"/>
+    <col min="8" max="8" width="24.33203125" style="31" customWidth="1"/>
+    <col min="9" max="9" width="17.1640625" style="31" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.33203125" style="31" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="70.33203125" style="31" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.83203125" style="31"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" ht="19" x14ac:dyDescent="0.2">
-      <c r="B2" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="31" t="s">
+    <row r="2" spans="2:11" ht="20" x14ac:dyDescent="0.25">
+      <c r="B2"/>
+      <c r="C2" s="77" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="79" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="79" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="J2" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="K2" s="29" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B3"/>
+      <c r="C3" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="32" t="s">
+        <v>55</v>
+      </c>
+      <c r="E3" s="24">
+        <v>2022</v>
+      </c>
+      <c r="F3" s="46" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" s="46" t="s">
+        <v>30</v>
+      </c>
+      <c r="H3" s="41" t="s">
+        <v>36</v>
+      </c>
+      <c r="I3" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="J3" s="41" t="s">
+        <v>36</v>
+      </c>
+      <c r="K3" s="46" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" ht="52" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="41"/>
+      <c r="I4" s="25"/>
+      <c r="J4" s="41"/>
+      <c r="K4" s="46"/>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B5"/>
+      <c r="C5" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="E5" s="21">
+        <v>2023</v>
+      </c>
+      <c r="F5" s="47" t="s">
+        <v>35</v>
+      </c>
+      <c r="G5" s="47" t="s">
+        <v>30</v>
+      </c>
+      <c r="H5" s="42" t="s">
+        <v>36</v>
+      </c>
+      <c r="I5" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="J5" s="42" t="s">
+        <v>36</v>
+      </c>
+      <c r="K5" s="47" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B6"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="47"/>
+      <c r="G6" s="47"/>
+      <c r="H6" s="42"/>
+      <c r="I6" s="27"/>
+      <c r="J6" s="42"/>
+      <c r="K6" s="47"/>
+    </row>
+    <row r="7" spans="2:11" ht="46" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="47"/>
+      <c r="G7" s="47"/>
+      <c r="H7" s="42"/>
+      <c r="I7" s="27"/>
+      <c r="J7" s="42"/>
+      <c r="K7" s="47"/>
+    </row>
+    <row r="8" spans="2:11" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8"/>
+      <c r="C8" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="D8" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="E8" s="19">
+        <v>2012</v>
+      </c>
+      <c r="F8" s="44" t="s">
+        <v>108</v>
+      </c>
+      <c r="G8" s="44" t="s">
+        <v>57</v>
+      </c>
+      <c r="H8" s="44" t="s">
+        <v>58</v>
+      </c>
+      <c r="I8" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="J8" s="39" t="s">
+        <v>36</v>
+      </c>
+      <c r="K8" s="44" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" ht="64" x14ac:dyDescent="0.2">
+      <c r="B9"/>
+      <c r="C9" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="36" t="s">
+        <v>104</v>
+      </c>
+      <c r="E9" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="F9" s="44" t="s">
+        <v>71</v>
+      </c>
+      <c r="G9" s="44" t="s">
+        <v>106</v>
+      </c>
+      <c r="H9" s="39" t="s">
+        <v>36</v>
+      </c>
+      <c r="I9" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="J9" s="39" t="s">
+        <v>36</v>
+      </c>
+      <c r="K9" s="44" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" ht="56" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10"/>
+      <c r="C10" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="22"/>
+      <c r="F10" s="78"/>
+      <c r="G10" s="78" t="s">
+        <v>110</v>
+      </c>
+      <c r="H10" s="43" t="s">
+        <v>109</v>
+      </c>
+      <c r="I10" s="23"/>
+      <c r="J10" s="43"/>
+      <c r="K10" s="78"/>
+    </row>
+    <row r="11" spans="2:11" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="39"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="44"/>
+      <c r="G11" s="44"/>
+      <c r="H11" s="39"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="39"/>
+      <c r="K11" s="39"/>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B12"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="39"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="44"/>
+      <c r="G12" s="44"/>
+      <c r="H12" s="39"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="39"/>
+      <c r="K12" s="39"/>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B13"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="38"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="44"/>
+      <c r="G13" s="44"/>
+      <c r="H13" s="39"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="39"/>
+      <c r="K13" s="39"/>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B14"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="39"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="44"/>
+      <c r="G14" s="44"/>
+      <c r="H14" s="39"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="39"/>
+      <c r="K14" s="39"/>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B15"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="39"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="44"/>
+      <c r="G15" s="44"/>
+      <c r="H15" s="39"/>
+      <c r="I15" s="20"/>
+      <c r="J15" s="39"/>
+      <c r="K15" s="39"/>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B16"/>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B17"/>
+      <c r="C17" s="28"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="45"/>
+      <c r="G17" s="45"/>
+      <c r="H17" s="40"/>
+      <c r="J17" s="40"/>
+      <c r="K17" s="40"/>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B18" s="28"/>
+      <c r="C18" s="28"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="45"/>
+      <c r="G18" s="45"/>
+      <c r="H18" s="40"/>
+      <c r="J18" s="40"/>
+      <c r="K18" s="40"/>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B19" s="28"/>
+      <c r="C19" s="28"/>
+      <c r="E19" s="28"/>
+      <c r="F19" s="45"/>
+      <c r="G19" s="45"/>
+      <c r="H19" s="40"/>
+      <c r="J19" s="40"/>
+      <c r="K19" s="40"/>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B20" s="28"/>
+      <c r="C20" s="28"/>
+      <c r="E20" s="28"/>
+      <c r="F20" s="45"/>
+      <c r="G20" s="45"/>
+      <c r="H20" s="40"/>
+      <c r="J20" s="40"/>
+      <c r="K20" s="40"/>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B21" s="28"/>
+      <c r="C21" s="28"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="45"/>
+      <c r="G21" s="45"/>
+      <c r="H21" s="40"/>
+      <c r="J21" s="40"/>
+      <c r="K21" s="40"/>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B22" s="28"/>
+      <c r="C22" s="28"/>
+      <c r="E22" s="28"/>
+      <c r="F22" s="45"/>
+      <c r="G22" s="45"/>
+      <c r="H22" s="40"/>
+      <c r="J22" s="40"/>
+      <c r="K22" s="40"/>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B23" s="28"/>
+      <c r="C23" s="28"/>
+      <c r="E23" s="28"/>
+      <c r="F23" s="45"/>
+      <c r="G23" s="45"/>
+      <c r="H23" s="40"/>
+      <c r="J23" s="40"/>
+      <c r="K23" s="40"/>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B24" s="28"/>
+      <c r="C24" s="28"/>
+      <c r="E24" s="28"/>
+      <c r="F24" s="45"/>
+      <c r="G24" s="45"/>
+      <c r="H24" s="40"/>
+      <c r="J24" s="40"/>
+      <c r="K24" s="40"/>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B25" s="28"/>
+      <c r="C25" s="28"/>
+      <c r="E25" s="28"/>
+      <c r="F25" s="45"/>
+      <c r="G25" s="45"/>
+      <c r="H25" s="40"/>
+      <c r="J25" s="40"/>
+      <c r="K25" s="40"/>
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B26" s="28"/>
+      <c r="C26" s="28"/>
+      <c r="E26" s="28"/>
+      <c r="F26" s="45"/>
+      <c r="G26" s="45"/>
+      <c r="H26" s="40"/>
+      <c r="J26" s="40"/>
+      <c r="K26" s="40"/>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B27" s="28"/>
+      <c r="C27" s="28"/>
+      <c r="E27" s="28"/>
+      <c r="F27" s="45"/>
+      <c r="G27" s="45"/>
+      <c r="H27" s="40"/>
+      <c r="J27" s="40"/>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B28" s="28"/>
+      <c r="C28" s="28"/>
+      <c r="E28" s="28"/>
+      <c r="F28" s="45"/>
+      <c r="G28" s="45"/>
+      <c r="H28" s="40"/>
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B29" s="28"/>
+      <c r="C29" s="28"/>
+      <c r="E29" s="28"/>
+      <c r="F29" s="45"/>
+      <c r="G29" s="45"/>
+      <c r="H29" s="40"/>
+    </row>
+    <row r="30" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B30" s="28"/>
+      <c r="C30" s="28"/>
+      <c r="E30" s="28"/>
+      <c r="F30" s="45"/>
+      <c r="G30" s="45"/>
+      <c r="H30" s="40"/>
+    </row>
+    <row r="31" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B31" s="28"/>
+      <c r="C31" s="28"/>
+      <c r="F31" s="45"/>
+      <c r="G31" s="45"/>
+      <c r="H31" s="40"/>
+    </row>
+    <row r="32" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B32" s="28"/>
+      <c r="C32" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="F32" s="45"/>
+      <c r="G32" s="45"/>
+      <c r="H32" s="40"/>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B33" s="28"/>
+      <c r="C33" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="F33" s="45"/>
+      <c r="G33" s="45"/>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B34" s="28"/>
+      <c r="C34" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="G34" s="45"/>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B35" s="28"/>
+      <c r="C35" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="G35" s="45"/>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B36" s="28"/>
+      <c r="C36" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="G36" s="45"/>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B37" s="28"/>
+      <c r="C37" s="26" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C38" s="26" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C39" s="26" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C40" s="26" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C41" s="26" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C42" s="26" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="43" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C43" s="26" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="45" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C45" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="32" t="s">
-        <v>29</v>
-      </c>
-      <c r="E2" s="31" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2" s="31" t="s">
-        <v>2</v>
-      </c>
-      <c r="G2" s="31" t="s">
+    </row>
+    <row r="47" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C47" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="H2" s="31" t="s">
-        <v>40</v>
-      </c>
-      <c r="I2" s="31" t="s">
-        <v>41</v>
-      </c>
-      <c r="J2" s="31" t="s">
-        <v>42</v>
-      </c>
-      <c r="K2" s="31" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B3" s="26" t="s">
-        <v>45</v>
-      </c>
-      <c r="C3" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="D3" s="34" t="s">
-        <v>77</v>
-      </c>
-      <c r="E3" s="26">
-        <v>2022</v>
-      </c>
-      <c r="F3" s="42" t="s">
-        <v>47</v>
-      </c>
-      <c r="G3" s="42" t="s">
-        <v>48</v>
-      </c>
-      <c r="H3" s="42" t="s">
-        <v>57</v>
-      </c>
-      <c r="I3" s="27" t="s">
-        <v>49</v>
-      </c>
-      <c r="J3" s="42" t="s">
-        <v>57</v>
-      </c>
-      <c r="K3" s="46" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B4" s="26"/>
-      <c r="C4" s="26"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="42"/>
-      <c r="G4" s="42"/>
-      <c r="H4" s="42"/>
-      <c r="I4" s="27"/>
-      <c r="J4" s="42"/>
-      <c r="K4" s="42"/>
-    </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B5" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="C5" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="D5" s="36" t="s">
-        <v>78</v>
-      </c>
-      <c r="E5" s="23">
-        <v>2023</v>
-      </c>
-      <c r="F5" s="43" t="s">
-        <v>56</v>
-      </c>
-      <c r="G5" s="43" t="s">
-        <v>48</v>
-      </c>
-      <c r="H5" s="43" t="s">
-        <v>57</v>
-      </c>
-      <c r="I5" s="29" t="s">
-        <v>49</v>
-      </c>
-      <c r="J5" s="43" t="s">
-        <v>57</v>
-      </c>
-      <c r="K5" s="47" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B6" s="23"/>
-      <c r="C6" s="23"/>
-      <c r="D6" s="36"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="43"/>
-      <c r="G6" s="43"/>
-      <c r="H6" s="43"/>
-      <c r="I6" s="29"/>
-      <c r="J6" s="43"/>
-      <c r="K6" s="43"/>
-    </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B7" s="23"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="36"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="43"/>
-      <c r="G7" s="43"/>
-      <c r="H7" s="43"/>
-      <c r="I7" s="29"/>
-      <c r="J7" s="43"/>
-      <c r="K7" s="43"/>
-    </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B8" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="C8" s="24" t="s">
-        <v>52</v>
-      </c>
-      <c r="D8" s="37" t="s">
-        <v>55</v>
-      </c>
-      <c r="E8" s="24"/>
-      <c r="F8" s="44"/>
-      <c r="G8" s="44" t="s">
-        <v>54</v>
-      </c>
-      <c r="H8" s="44"/>
-      <c r="I8" s="25"/>
-      <c r="J8" s="44"/>
-      <c r="K8" s="44"/>
-    </row>
-    <row r="9" spans="2:11" ht="80" x14ac:dyDescent="0.2">
-      <c r="B9" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="C9" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="D9" s="38" t="s">
-        <v>76</v>
-      </c>
-      <c r="E9" s="21">
-        <v>2012</v>
-      </c>
-      <c r="F9" s="40"/>
-      <c r="G9" s="40" t="s">
-        <v>79</v>
-      </c>
-      <c r="H9" s="45" t="s">
-        <v>80</v>
-      </c>
-      <c r="I9" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="J9" s="40" t="s">
-        <v>57</v>
-      </c>
-      <c r="K9" s="45" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B10" s="21"/>
-      <c r="C10" s="21"/>
-      <c r="D10" s="39"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="40"/>
-      <c r="G10" s="40"/>
-      <c r="H10" s="40"/>
-      <c r="I10" s="22"/>
-      <c r="J10" s="40"/>
-      <c r="K10" s="40"/>
-    </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B11" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="C11" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="D11" s="40"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="40"/>
-      <c r="G11" s="40"/>
-      <c r="H11" s="40"/>
-      <c r="I11" s="22"/>
-      <c r="J11" s="40"/>
-      <c r="K11" s="40"/>
-    </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B12" s="21" t="s">
-        <v>61</v>
-      </c>
-      <c r="C12" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="D12" s="40"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="40"/>
-      <c r="G12" s="40"/>
-      <c r="H12" s="40"/>
-      <c r="I12" s="22"/>
-      <c r="J12" s="40"/>
-      <c r="K12" s="40"/>
-    </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B13" s="21"/>
-      <c r="C13" s="21"/>
-      <c r="D13" s="40"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="40"/>
-      <c r="G13" s="40"/>
-      <c r="H13" s="40"/>
-      <c r="I13" s="22"/>
-      <c r="J13" s="40"/>
-      <c r="K13" s="40"/>
-    </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B14" s="21"/>
-      <c r="C14" s="21"/>
-      <c r="D14" s="39"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="40"/>
-      <c r="G14" s="40"/>
-      <c r="H14" s="40"/>
-      <c r="I14" s="22"/>
-      <c r="J14" s="40"/>
-      <c r="K14" s="40"/>
-    </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B15" s="21"/>
-      <c r="C15" s="21"/>
-      <c r="D15" s="40"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="40"/>
-      <c r="G15" s="40"/>
-      <c r="H15" s="40"/>
-      <c r="I15" s="22"/>
-      <c r="J15" s="40"/>
-      <c r="K15" s="40"/>
-    </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B16" s="21"/>
-      <c r="C16" s="21"/>
-      <c r="D16" s="40"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="40"/>
-      <c r="G16" s="40"/>
-      <c r="H16" s="40"/>
-      <c r="I16" s="22"/>
-      <c r="J16" s="40"/>
-      <c r="K16" s="40"/>
-    </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B17" s="30"/>
-      <c r="C17" s="30"/>
-      <c r="E17" s="30"/>
-      <c r="F17" s="41"/>
-      <c r="G17" s="41"/>
-      <c r="H17" s="41"/>
-      <c r="J17" s="41"/>
-      <c r="K17" s="41"/>
-    </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B18" s="30"/>
-      <c r="C18" s="30"/>
-      <c r="E18" s="30"/>
-      <c r="F18" s="41"/>
-      <c r="G18" s="41"/>
-      <c r="H18" s="41"/>
-      <c r="J18" s="41"/>
-      <c r="K18" s="41"/>
-    </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B19" s="30"/>
-      <c r="C19" s="30"/>
-      <c r="E19" s="30"/>
-      <c r="F19" s="41"/>
-      <c r="G19" s="41"/>
-      <c r="H19" s="41"/>
-      <c r="J19" s="41"/>
-      <c r="K19" s="41"/>
-    </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B20" s="30"/>
-      <c r="C20" s="30"/>
-      <c r="E20" s="30"/>
-      <c r="F20" s="41"/>
-      <c r="G20" s="41"/>
-      <c r="H20" s="41"/>
-      <c r="J20" s="41"/>
-      <c r="K20" s="41"/>
-    </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B21" s="30"/>
-      <c r="C21" s="30"/>
-      <c r="E21" s="30"/>
-      <c r="F21" s="41"/>
-      <c r="G21" s="41"/>
-      <c r="H21" s="41"/>
-      <c r="J21" s="41"/>
-      <c r="K21" s="41"/>
-    </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B22" s="30"/>
-      <c r="C22" s="30"/>
-      <c r="E22" s="30"/>
-      <c r="F22" s="41"/>
-      <c r="G22" s="41"/>
-      <c r="H22" s="41"/>
-      <c r="J22" s="41"/>
-      <c r="K22" s="41"/>
-    </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B23" s="30"/>
-      <c r="C23" s="30"/>
-      <c r="E23" s="30"/>
-      <c r="F23" s="41"/>
-      <c r="G23" s="41"/>
-      <c r="H23" s="41"/>
-      <c r="J23" s="41"/>
-      <c r="K23" s="41"/>
-    </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B24" s="30"/>
-      <c r="C24" s="30"/>
-      <c r="E24" s="30"/>
-      <c r="F24" s="41"/>
-      <c r="G24" s="41"/>
-      <c r="H24" s="41"/>
-      <c r="J24" s="41"/>
-      <c r="K24" s="41"/>
-    </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B25" s="30"/>
-      <c r="C25" s="30"/>
-      <c r="E25" s="30"/>
-      <c r="F25" s="41"/>
-      <c r="G25" s="41"/>
-      <c r="H25" s="41"/>
-      <c r="J25" s="41"/>
-      <c r="K25" s="41"/>
-    </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B26" s="30"/>
-      <c r="C26" s="30"/>
-      <c r="E26" s="30"/>
-      <c r="F26" s="41"/>
-      <c r="G26" s="41"/>
-      <c r="H26" s="41"/>
-      <c r="J26" s="41"/>
-      <c r="K26" s="41"/>
-    </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B27" s="30"/>
-      <c r="C27" s="30"/>
-      <c r="E27" s="30"/>
-      <c r="F27" s="41"/>
-      <c r="G27" s="41"/>
-      <c r="H27" s="41"/>
-      <c r="J27" s="41"/>
-    </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B28" s="30"/>
-      <c r="C28" s="30"/>
-      <c r="E28" s="30"/>
-      <c r="F28" s="41"/>
-      <c r="G28" s="41"/>
-      <c r="H28" s="41"/>
-    </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B29" s="30"/>
-      <c r="C29" s="30"/>
-      <c r="E29" s="30"/>
-      <c r="F29" s="41"/>
-      <c r="G29" s="41"/>
-      <c r="H29" s="41"/>
-    </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B30" s="30"/>
-      <c r="C30" s="30"/>
-      <c r="E30" s="30"/>
-      <c r="F30" s="41"/>
-      <c r="G30" s="41"/>
-      <c r="H30" s="41"/>
-    </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B31" s="30"/>
-      <c r="C31" s="30"/>
-      <c r="F31" s="41"/>
-      <c r="G31" s="41"/>
-      <c r="H31" s="41"/>
-    </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B32" s="30"/>
-      <c r="C32" s="21" t="s">
-        <v>62</v>
-      </c>
-      <c r="F32" s="41"/>
-      <c r="G32" s="41"/>
-      <c r="H32" s="41"/>
-    </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B33" s="30"/>
-      <c r="C33" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="F33" s="41"/>
-      <c r="G33" s="41"/>
-    </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B34" s="30"/>
-      <c r="C34" s="21" t="s">
-        <v>64</v>
-      </c>
-      <c r="G34" s="41"/>
-    </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B35" s="30"/>
-      <c r="C35" s="28" t="s">
-        <v>65</v>
-      </c>
-      <c r="G35" s="41"/>
-    </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B36" s="30"/>
-      <c r="C36" s="28" t="s">
-        <v>66</v>
-      </c>
-      <c r="G36" s="41"/>
-    </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B37" s="30"/>
-      <c r="C37" s="28" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="C38" s="28" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="C39" s="28" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="C40" s="28" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="C41" s="28" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="C42" s="28" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="C43" s="28" t="s">
-        <v>73</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="20">
+  <mergeCells count="18">
     <mergeCell ref="J5:J7"/>
     <mergeCell ref="K5:K7"/>
     <mergeCell ref="D3:D4"/>
@@ -1547,20 +1679,18 @@
     <mergeCell ref="J3:J4"/>
     <mergeCell ref="K3:K4"/>
     <mergeCell ref="C5:C7"/>
-    <mergeCell ref="B5:B7"/>
     <mergeCell ref="E5:E7"/>
     <mergeCell ref="F5:F7"/>
     <mergeCell ref="G5:G7"/>
     <mergeCell ref="H5:H7"/>
     <mergeCell ref="I5:I7"/>
     <mergeCell ref="C3:C4"/>
-    <mergeCell ref="B3:B4"/>
     <mergeCell ref="E3:E4"/>
     <mergeCell ref="F3:F4"/>
     <mergeCell ref="G3:G4"/>
     <mergeCell ref="H3:H4"/>
   </mergeCells>
-  <conditionalFormatting sqref="I3:I5 I8:I13">
+  <conditionalFormatting sqref="I3:I5 I8:I12">
     <cfRule type="beginsWith" dxfId="1" priority="1" operator="beginsWith" text="Not">
       <formula>LEFT(I3,LEN("Not"))="Not"</formula>
     </cfRule>
@@ -1571,8 +1701,8 @@
   <hyperlinks>
     <hyperlink ref="D3" r:id="rId1" display="https://doi.org/10.48550/arXiv.2506.23967" xr:uid="{8103FB26-0DDA-5847-A4CA-225934B7A72C}"/>
     <hyperlink ref="D5" r:id="rId2" display="https://doi.org/10.1016/j.comnet.2024.110371" xr:uid="{A8F40409-1E18-E44C-80FF-10710492D78A}"/>
-    <hyperlink ref="D8" r:id="rId3" display="https://doi.org/10.1016/j.comnet.2024.110371" xr:uid="{DF0E70E7-400C-E04D-A3BA-64A05137BB33}"/>
-    <hyperlink ref="D9" r:id="rId4" display="https://doi.org/10.1007/s10515-014-0171-1" xr:uid="{444CAD35-E26B-C443-835C-7E3C25D901AA}"/>
+    <hyperlink ref="D10" r:id="rId3" display="https://doi.org/10.1016/j.comnet.2024.110371" xr:uid="{DF0E70E7-400C-E04D-A3BA-64A05137BB33}"/>
+    <hyperlink ref="D8" r:id="rId4" display="https://doi.org/10.1007/s10515-014-0171-1" xr:uid="{444CAD35-E26B-C443-835C-7E3C25D901AA}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -1584,12 +1714,13 @@
   <dimension ref="B2:J21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="7" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="25" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="29.83203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="32.83203125" bestFit="1" customWidth="1"/>
@@ -1597,36 +1728,36 @@
     <col min="7" max="7" width="22.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="32.33203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="21.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.5" customWidth="1"/>
+    <col min="10" max="10" width="13.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.2">
@@ -1653,23 +1784,23 @@
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
       <c r="J5" s="4" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.2">
@@ -1856,51 +1987,58 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="B2:AE31"/>
+  <dimension ref="B2:AN31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="86" workbookViewId="0">
-      <selection activeCell="N46" sqref="N46"/>
+    <sheetView zoomScale="89" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9.33203125" customWidth="1"/>
-    <col min="2" max="2" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.83203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.1640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="28.83203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="25.6640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="33.83203125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="35.1640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="28" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="19.1640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="26.1640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="26.5" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="33.6640625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="26.5" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="23.83203125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="33" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="35.5" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="40.5" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="35" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="28" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="33" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="30.1640625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="31" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="29" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.83203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14" customWidth="1"/>
+    <col min="15" max="16" width="13.33203125" customWidth="1"/>
+    <col min="17" max="17" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="8" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="5.83203125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="14" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="15" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="20.83203125" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="31" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="29" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:31" ht="24" x14ac:dyDescent="0.3">
-      <c r="B2" s="53" t="s">
+    <row r="2" spans="2:40" ht="24" x14ac:dyDescent="0.3">
+      <c r="B2" s="48" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="9" t="s">
@@ -1917,191 +2055,251 @@
       <c r="L2" s="10"/>
       <c r="M2" s="10"/>
       <c r="N2" s="10"/>
-      <c r="O2" s="12" t="s">
+      <c r="O2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="P2" s="13"/>
-      <c r="Q2" s="13"/>
-      <c r="R2" s="14"/>
-      <c r="S2" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="T2" s="16"/>
-      <c r="U2" s="17"/>
-      <c r="V2" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="W2" s="19"/>
-      <c r="X2" s="19"/>
-      <c r="Y2" s="19"/>
-      <c r="Z2" s="19"/>
-      <c r="AA2" s="20"/>
-      <c r="AB2" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="AC2" s="7"/>
-      <c r="AD2" s="7"/>
-      <c r="AE2" s="8"/>
-    </row>
-    <row r="3" spans="2:31" ht="24" x14ac:dyDescent="0.3">
-      <c r="B3" s="53"/>
-      <c r="C3" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="9" t="s">
+      <c r="P2" s="11"/>
+      <c r="Q2" s="11"/>
+      <c r="R2" s="11"/>
+      <c r="S2" s="11"/>
+      <c r="T2" s="12"/>
+      <c r="U2" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="V2" s="14"/>
+      <c r="W2" s="15"/>
+      <c r="X2" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y2" s="17"/>
+      <c r="Z2" s="17"/>
+      <c r="AA2" s="17"/>
+      <c r="AB2" s="17"/>
+      <c r="AC2" s="17"/>
+      <c r="AD2" s="17"/>
+      <c r="AE2" s="17"/>
+      <c r="AF2" s="17"/>
+      <c r="AG2" s="17"/>
+      <c r="AH2" s="17"/>
+      <c r="AI2" s="17"/>
+      <c r="AJ2" s="18"/>
+      <c r="AK2" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="AL2" s="7"/>
+      <c r="AM2" s="7"/>
+      <c r="AN2" s="8"/>
+    </row>
+    <row r="3" spans="2:40" ht="54" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="48"/>
+      <c r="C3" s="71" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="72"/>
+      <c r="E3" s="72"/>
+      <c r="F3" s="72"/>
+      <c r="G3" s="72"/>
+      <c r="H3" s="73"/>
+      <c r="I3" s="71" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="48" t="s">
+      <c r="J3" s="72"/>
+      <c r="K3" s="72"/>
+      <c r="L3" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="M3" s="48" t="s">
-        <v>10</v>
-      </c>
-      <c r="N3" s="48" t="s">
+      <c r="M3" s="62" t="s">
+        <v>77</v>
+      </c>
+      <c r="N3" s="62" t="s">
+        <v>78</v>
+      </c>
+      <c r="O3" s="75" t="s">
+        <v>79</v>
+      </c>
+      <c r="P3" s="75"/>
+      <c r="Q3" s="75"/>
+      <c r="R3" s="63" t="s">
+        <v>80</v>
+      </c>
+      <c r="S3" s="63" t="s">
+        <v>81</v>
+      </c>
+      <c r="T3" s="56" t="s">
+        <v>7</v>
+      </c>
+      <c r="U3" s="64" t="s">
+        <v>82</v>
+      </c>
+      <c r="V3" s="64" t="s">
+        <v>83</v>
+      </c>
+      <c r="W3" s="64" t="s">
+        <v>84</v>
+      </c>
+      <c r="X3" s="74" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y3" s="74"/>
+      <c r="Z3" s="74"/>
+      <c r="AA3" s="74"/>
+      <c r="AB3" s="74" t="s">
+        <v>73</v>
+      </c>
+      <c r="AC3" s="74"/>
+      <c r="AD3" s="74"/>
+      <c r="AE3" s="74"/>
+      <c r="AF3" s="65" t="s">
+        <v>85</v>
+      </c>
+      <c r="AG3" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="O3" s="49" t="s">
-        <v>8</v>
-      </c>
-      <c r="P3" s="49" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q3" s="49" t="s">
-        <v>11</v>
-      </c>
-      <c r="R3" s="49" t="s">
-        <v>12</v>
-      </c>
-      <c r="S3" s="50" t="s">
-        <v>14</v>
-      </c>
-      <c r="T3" s="50" t="s">
-        <v>15</v>
-      </c>
-      <c r="U3" s="50" t="s">
-        <v>16</v>
-      </c>
-      <c r="V3" s="51" t="s">
-        <v>17</v>
-      </c>
-      <c r="W3" s="51" t="s">
-        <v>18</v>
-      </c>
-      <c r="X3" s="51" t="s">
-        <v>19</v>
-      </c>
-      <c r="Y3" s="51" t="s">
-        <v>20</v>
-      </c>
-      <c r="Z3" s="51" t="s">
-        <v>21</v>
-      </c>
-      <c r="AA3" s="51" t="s">
-        <v>22</v>
-      </c>
-      <c r="AB3" s="52" t="s">
-        <v>25</v>
-      </c>
-      <c r="AC3" s="52" t="s">
-        <v>26</v>
-      </c>
-      <c r="AD3" s="52" t="s">
-        <v>27</v>
-      </c>
-      <c r="AE3" s="52" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="2:31" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="56"/>
-      <c r="C4" s="57" t="s">
+      <c r="AH3" s="65" t="s">
         <v>86</v>
       </c>
-      <c r="D4" s="57" t="s">
+      <c r="AI3" s="65" t="s">
         <v>87</v>
       </c>
-      <c r="E4" s="57" t="s">
+      <c r="AJ3" s="65" t="s">
         <v>88</v>
       </c>
-      <c r="F4" s="57" t="s">
+      <c r="AK3" s="66" t="s">
         <v>89</v>
       </c>
-      <c r="G4" s="58" t="s">
+      <c r="AL3" s="66" t="s">
         <v>90</v>
       </c>
-      <c r="H4" s="58" t="s">
+      <c r="AM3" s="66" t="s">
         <v>91</v>
       </c>
-      <c r="I4" s="58" t="s">
+      <c r="AN3" s="66" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="4" spans="2:40" ht="81" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="51"/>
+      <c r="C4" s="69" t="s">
+        <v>61</v>
+      </c>
+      <c r="D4" s="69" t="s">
+        <v>62</v>
+      </c>
+      <c r="E4" s="69" t="s">
+        <v>63</v>
+      </c>
+      <c r="F4" s="69" t="s">
+        <v>64</v>
+      </c>
+      <c r="G4" s="70" t="s">
+        <v>65</v>
+      </c>
+      <c r="H4" s="70" t="s">
+        <v>66</v>
+      </c>
+      <c r="I4" s="68" t="s">
+        <v>97</v>
+      </c>
+      <c r="J4" s="68" t="s">
+        <v>98</v>
+      </c>
+      <c r="K4" s="70" t="s">
+        <v>68</v>
+      </c>
+      <c r="L4" s="55"/>
+      <c r="M4" s="55"/>
+      <c r="N4" s="55"/>
+      <c r="O4" s="76" t="s">
+        <v>99</v>
+      </c>
+      <c r="P4" s="76" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q4" s="76" t="s">
+        <v>101</v>
+      </c>
+      <c r="R4" s="57"/>
+      <c r="S4" s="57"/>
+      <c r="T4" s="57"/>
+      <c r="U4" s="58"/>
+      <c r="V4" s="58"/>
+      <c r="W4" s="58"/>
+      <c r="X4" s="67" t="s">
+        <v>96</v>
+      </c>
+      <c r="Y4" s="53" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z4" s="67" t="s">
+        <v>95</v>
+      </c>
+      <c r="AA4" s="67" t="s">
+        <v>94</v>
+      </c>
+      <c r="AB4" s="53" t="s">
+        <v>74</v>
+      </c>
+      <c r="AC4" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="AD4" s="53" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE4" s="67" t="s">
         <v>93</v>
       </c>
-      <c r="J4" s="58" t="s">
-        <v>95</v>
-      </c>
-      <c r="K4" s="58" t="s">
-        <v>94</v>
-      </c>
-      <c r="L4" s="61"/>
-      <c r="M4" s="61"/>
-      <c r="N4" s="61"/>
-      <c r="O4" s="59"/>
-      <c r="P4" s="59"/>
-      <c r="Q4" s="59"/>
-      <c r="R4" s="59"/>
-      <c r="S4" s="59"/>
-      <c r="T4" s="59"/>
-      <c r="U4" s="59"/>
-      <c r="V4" s="59"/>
-      <c r="W4" s="59"/>
-      <c r="X4" s="59"/>
-      <c r="Y4" s="59"/>
-      <c r="Z4" s="59"/>
-      <c r="AA4" s="59"/>
-      <c r="AB4" s="59"/>
-      <c r="AC4" s="59"/>
-      <c r="AD4" s="59"/>
-      <c r="AE4" s="4"/>
-    </row>
-    <row r="5" spans="2:31" ht="16" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="55"/>
-      <c r="C5" s="55"/>
-      <c r="D5" s="55"/>
-      <c r="E5" s="55"/>
-      <c r="F5" s="55"/>
-      <c r="G5" s="55"/>
-      <c r="H5" s="55"/>
-      <c r="I5" s="55"/>
-      <c r="J5" s="55"/>
-      <c r="K5" s="55"/>
-      <c r="L5" s="55"/>
-      <c r="M5" s="55"/>
-      <c r="N5" s="55"/>
-      <c r="O5" s="55"/>
-      <c r="P5" s="55"/>
-      <c r="Q5" s="55"/>
-      <c r="R5" s="55"/>
-      <c r="S5" s="55"/>
-      <c r="T5" s="55"/>
-      <c r="U5" s="55"/>
-      <c r="V5" s="55"/>
-      <c r="W5" s="55"/>
-      <c r="X5" s="55"/>
-      <c r="Y5" s="55"/>
-      <c r="Z5" s="55"/>
-      <c r="AA5" s="55"/>
-      <c r="AB5" s="55"/>
-      <c r="AC5" s="55"/>
-      <c r="AD5" s="55"/>
-      <c r="AE5" s="4"/>
-    </row>
-    <row r="6" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF4" s="60"/>
+      <c r="AG4" s="60"/>
+      <c r="AH4" s="60"/>
+      <c r="AI4" s="60"/>
+      <c r="AJ4" s="60"/>
+      <c r="AK4" s="61"/>
+      <c r="AL4" s="61"/>
+      <c r="AM4" s="61"/>
+      <c r="AN4" s="61"/>
+    </row>
+    <row r="5" spans="2:40" ht="17" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="50"/>
+      <c r="C5" s="50"/>
+      <c r="D5" s="50"/>
+      <c r="E5" s="50"/>
+      <c r="F5" s="50"/>
+      <c r="G5" s="50"/>
+      <c r="H5" s="50"/>
+      <c r="I5" s="50"/>
+      <c r="J5" s="50"/>
+      <c r="K5" s="50"/>
+      <c r="L5" s="50"/>
+      <c r="M5" s="50"/>
+      <c r="N5" s="50"/>
+      <c r="O5" s="50"/>
+      <c r="P5" s="50"/>
+      <c r="Q5" s="50"/>
+      <c r="R5" s="50"/>
+      <c r="S5" s="50"/>
+      <c r="T5" s="50"/>
+      <c r="U5" s="50"/>
+      <c r="V5" s="50"/>
+      <c r="W5" s="50"/>
+      <c r="X5" s="50"/>
+      <c r="Y5" s="50"/>
+      <c r="Z5" s="50"/>
+      <c r="AA5" s="50"/>
+      <c r="AB5" s="50"/>
+      <c r="AC5" s="50"/>
+      <c r="AD5" s="50"/>
+      <c r="AE5" s="50"/>
+      <c r="AF5" s="50"/>
+      <c r="AG5" s="50"/>
+      <c r="AH5" s="50"/>
+      <c r="AI5" s="50"/>
+      <c r="AJ5" s="50"/>
+      <c r="AK5" s="50"/>
+      <c r="AL5" s="50"/>
+      <c r="AM5" s="50"/>
+      <c r="AN5" s="4"/>
+    </row>
+    <row r="6" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
@@ -2132,35 +2330,42 @@
       <c r="AC6" s="4"/>
       <c r="AD6" s="4"/>
       <c r="AE6" s="4"/>
-    </row>
-    <row r="7" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF6" s="4"/>
+      <c r="AG6" s="4"/>
+      <c r="AH6" s="4"/>
+      <c r="AI6" s="4"/>
+      <c r="AJ6" s="4"/>
+      <c r="AK6" s="4"/>
+      <c r="AL6" s="4"/>
+      <c r="AM6" s="4"/>
+      <c r="AN6" s="4"/>
+    </row>
+    <row r="7" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B7" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="C7" s="54" t="s">
-        <v>92</v>
+        <v>52</v>
+      </c>
+      <c r="C7" s="49" t="s">
+        <v>67</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
-      <c r="F7" s="54" t="s">
-        <v>92</v>
+      <c r="F7" s="49" t="s">
+        <v>67</v>
       </c>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
-      <c r="I7" s="54" t="s">
-        <v>92</v>
-      </c>
-      <c r="J7" s="54"/>
+      <c r="I7" s="49" t="s">
+        <v>67</v>
+      </c>
+      <c r="J7" s="49"/>
       <c r="K7" s="4"/>
-      <c r="L7" s="60" t="s">
-        <v>96</v>
+      <c r="L7" s="52" t="s">
+        <v>69</v>
       </c>
       <c r="M7" s="4"/>
-      <c r="O7" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="P7" s="4"/>
-      <c r="Q7" s="4"/>
+      <c r="Q7" s="4" t="s">
+        <v>60</v>
+      </c>
       <c r="R7" s="4"/>
       <c r="S7" s="4"/>
       <c r="T7" s="4"/>
@@ -2175,8 +2380,17 @@
       <c r="AC7" s="4"/>
       <c r="AD7" s="4"/>
       <c r="AE7" s="4"/>
-    </row>
-    <row r="8" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF7" s="4"/>
+      <c r="AG7" s="4"/>
+      <c r="AH7" s="4"/>
+      <c r="AI7" s="4"/>
+      <c r="AJ7" s="4"/>
+      <c r="AK7" s="4"/>
+      <c r="AL7" s="4"/>
+      <c r="AM7" s="4"/>
+      <c r="AN7" s="4"/>
+    </row>
+    <row r="8" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
@@ -2207,8 +2421,17 @@
       <c r="AC8" s="4"/>
       <c r="AD8" s="4"/>
       <c r="AE8" s="4"/>
-    </row>
-    <row r="9" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF8" s="4"/>
+      <c r="AG8" s="4"/>
+      <c r="AH8" s="4"/>
+      <c r="AI8" s="4"/>
+      <c r="AJ8" s="4"/>
+      <c r="AK8" s="4"/>
+      <c r="AL8" s="4"/>
+      <c r="AM8" s="4"/>
+      <c r="AN8" s="4"/>
+    </row>
+    <row r="9" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
@@ -2239,8 +2462,17 @@
       <c r="AC9" s="4"/>
       <c r="AD9" s="4"/>
       <c r="AE9" s="4"/>
-    </row>
-    <row r="10" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF9" s="4"/>
+      <c r="AG9" s="4"/>
+      <c r="AH9" s="4"/>
+      <c r="AI9" s="4"/>
+      <c r="AJ9" s="4"/>
+      <c r="AK9" s="4"/>
+      <c r="AL9" s="4"/>
+      <c r="AM9" s="4"/>
+      <c r="AN9" s="4"/>
+    </row>
+    <row r="10" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
@@ -2271,8 +2503,17 @@
       <c r="AC10" s="4"/>
       <c r="AD10" s="4"/>
       <c r="AE10" s="4"/>
-    </row>
-    <row r="11" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF10" s="4"/>
+      <c r="AG10" s="4"/>
+      <c r="AH10" s="4"/>
+      <c r="AI10" s="4"/>
+      <c r="AJ10" s="4"/>
+      <c r="AK10" s="4"/>
+      <c r="AL10" s="4"/>
+      <c r="AM10" s="4"/>
+      <c r="AN10" s="4"/>
+    </row>
+    <row r="11" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -2303,8 +2544,17 @@
       <c r="AC11" s="4"/>
       <c r="AD11" s="4"/>
       <c r="AE11" s="4"/>
-    </row>
-    <row r="12" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF11" s="4"/>
+      <c r="AG11" s="4"/>
+      <c r="AH11" s="4"/>
+      <c r="AI11" s="4"/>
+      <c r="AJ11" s="4"/>
+      <c r="AK11" s="4"/>
+      <c r="AL11" s="4"/>
+      <c r="AM11" s="4"/>
+      <c r="AN11" s="4"/>
+    </row>
+    <row r="12" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
@@ -2335,8 +2585,17 @@
       <c r="AC12" s="4"/>
       <c r="AD12" s="4"/>
       <c r="AE12" s="4"/>
-    </row>
-    <row r="13" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF12" s="4"/>
+      <c r="AG12" s="4"/>
+      <c r="AH12" s="4"/>
+      <c r="AI12" s="4"/>
+      <c r="AJ12" s="4"/>
+      <c r="AK12" s="4"/>
+      <c r="AL12" s="4"/>
+      <c r="AM12" s="4"/>
+      <c r="AN12" s="4"/>
+    </row>
+    <row r="13" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
@@ -2367,8 +2626,17 @@
       <c r="AC13" s="4"/>
       <c r="AD13" s="4"/>
       <c r="AE13" s="4"/>
-    </row>
-    <row r="14" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF13" s="4"/>
+      <c r="AG13" s="4"/>
+      <c r="AH13" s="4"/>
+      <c r="AI13" s="4"/>
+      <c r="AJ13" s="4"/>
+      <c r="AK13" s="4"/>
+      <c r="AL13" s="4"/>
+      <c r="AM13" s="4"/>
+      <c r="AN13" s="4"/>
+    </row>
+    <row r="14" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
@@ -2399,8 +2667,17 @@
       <c r="AC14" s="4"/>
       <c r="AD14" s="4"/>
       <c r="AE14" s="4"/>
-    </row>
-    <row r="15" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF14" s="4"/>
+      <c r="AG14" s="4"/>
+      <c r="AH14" s="4"/>
+      <c r="AI14" s="4"/>
+      <c r="AJ14" s="4"/>
+      <c r="AK14" s="4"/>
+      <c r="AL14" s="4"/>
+      <c r="AM14" s="4"/>
+      <c r="AN14" s="4"/>
+    </row>
+    <row r="15" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
@@ -2431,8 +2708,17 @@
       <c r="AC15" s="4"/>
       <c r="AD15" s="4"/>
       <c r="AE15" s="4"/>
-    </row>
-    <row r="16" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF15" s="4"/>
+      <c r="AG15" s="4"/>
+      <c r="AH15" s="4"/>
+      <c r="AI15" s="4"/>
+      <c r="AJ15" s="4"/>
+      <c r="AK15" s="4"/>
+      <c r="AL15" s="4"/>
+      <c r="AM15" s="4"/>
+      <c r="AN15" s="4"/>
+    </row>
+    <row r="16" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
@@ -2463,8 +2749,17 @@
       <c r="AC16" s="4"/>
       <c r="AD16" s="4"/>
       <c r="AE16" s="4"/>
-    </row>
-    <row r="17" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF16" s="4"/>
+      <c r="AG16" s="4"/>
+      <c r="AH16" s="4"/>
+      <c r="AI16" s="4"/>
+      <c r="AJ16" s="4"/>
+      <c r="AK16" s="4"/>
+      <c r="AL16" s="4"/>
+      <c r="AM16" s="4"/>
+      <c r="AN16" s="4"/>
+    </row>
+    <row r="17" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
@@ -2495,8 +2790,17 @@
       <c r="AC17" s="4"/>
       <c r="AD17" s="4"/>
       <c r="AE17" s="4"/>
-    </row>
-    <row r="18" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF17" s="4"/>
+      <c r="AG17" s="4"/>
+      <c r="AH17" s="4"/>
+      <c r="AI17" s="4"/>
+      <c r="AJ17" s="4"/>
+      <c r="AK17" s="4"/>
+      <c r="AL17" s="4"/>
+      <c r="AM17" s="4"/>
+      <c r="AN17" s="4"/>
+    </row>
+    <row r="18" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
@@ -2527,8 +2831,17 @@
       <c r="AC18" s="4"/>
       <c r="AD18" s="4"/>
       <c r="AE18" s="4"/>
-    </row>
-    <row r="19" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF18" s="4"/>
+      <c r="AG18" s="4"/>
+      <c r="AH18" s="4"/>
+      <c r="AI18" s="4"/>
+      <c r="AJ18" s="4"/>
+      <c r="AK18" s="4"/>
+      <c r="AL18" s="4"/>
+      <c r="AM18" s="4"/>
+      <c r="AN18" s="4"/>
+    </row>
+    <row r="19" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
@@ -2559,8 +2872,17 @@
       <c r="AC19" s="4"/>
       <c r="AD19" s="4"/>
       <c r="AE19" s="4"/>
-    </row>
-    <row r="20" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF19" s="4"/>
+      <c r="AG19" s="4"/>
+      <c r="AH19" s="4"/>
+      <c r="AI19" s="4"/>
+      <c r="AJ19" s="4"/>
+      <c r="AK19" s="4"/>
+      <c r="AL19" s="4"/>
+      <c r="AM19" s="4"/>
+      <c r="AN19" s="4"/>
+    </row>
+    <row r="20" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
@@ -2591,8 +2913,17 @@
       <c r="AC20" s="4"/>
       <c r="AD20" s="4"/>
       <c r="AE20" s="4"/>
-    </row>
-    <row r="21" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF20" s="4"/>
+      <c r="AG20" s="4"/>
+      <c r="AH20" s="4"/>
+      <c r="AI20" s="4"/>
+      <c r="AJ20" s="4"/>
+      <c r="AK20" s="4"/>
+      <c r="AL20" s="4"/>
+      <c r="AM20" s="4"/>
+      <c r="AN20" s="4"/>
+    </row>
+    <row r="21" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
@@ -2623,8 +2954,17 @@
       <c r="AC21" s="4"/>
       <c r="AD21" s="4"/>
       <c r="AE21" s="4"/>
-    </row>
-    <row r="22" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF21" s="4"/>
+      <c r="AG21" s="4"/>
+      <c r="AH21" s="4"/>
+      <c r="AI21" s="4"/>
+      <c r="AJ21" s="4"/>
+      <c r="AK21" s="4"/>
+      <c r="AL21" s="4"/>
+      <c r="AM21" s="4"/>
+      <c r="AN21" s="4"/>
+    </row>
+    <row r="22" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
@@ -2655,8 +2995,17 @@
       <c r="AC22" s="4"/>
       <c r="AD22" s="4"/>
       <c r="AE22" s="4"/>
-    </row>
-    <row r="23" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF22" s="4"/>
+      <c r="AG22" s="4"/>
+      <c r="AH22" s="4"/>
+      <c r="AI22" s="4"/>
+      <c r="AJ22" s="4"/>
+      <c r="AK22" s="4"/>
+      <c r="AL22" s="4"/>
+      <c r="AM22" s="4"/>
+      <c r="AN22" s="4"/>
+    </row>
+    <row r="23" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
@@ -2687,8 +3036,17 @@
       <c r="AC23" s="4"/>
       <c r="AD23" s="4"/>
       <c r="AE23" s="4"/>
-    </row>
-    <row r="24" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF23" s="4"/>
+      <c r="AG23" s="4"/>
+      <c r="AH23" s="4"/>
+      <c r="AI23" s="4"/>
+      <c r="AJ23" s="4"/>
+      <c r="AK23" s="4"/>
+      <c r="AL23" s="4"/>
+      <c r="AM23" s="4"/>
+      <c r="AN23" s="4"/>
+    </row>
+    <row r="24" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
@@ -2719,8 +3077,17 @@
       <c r="AC24" s="4"/>
       <c r="AD24" s="4"/>
       <c r="AE24" s="4"/>
-    </row>
-    <row r="25" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF24" s="4"/>
+      <c r="AG24" s="4"/>
+      <c r="AH24" s="4"/>
+      <c r="AI24" s="4"/>
+      <c r="AJ24" s="4"/>
+      <c r="AK24" s="4"/>
+      <c r="AL24" s="4"/>
+      <c r="AM24" s="4"/>
+      <c r="AN24" s="4"/>
+    </row>
+    <row r="25" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
@@ -2751,8 +3118,17 @@
       <c r="AC25" s="4"/>
       <c r="AD25" s="4"/>
       <c r="AE25" s="4"/>
-    </row>
-    <row r="26" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF25" s="4"/>
+      <c r="AG25" s="4"/>
+      <c r="AH25" s="4"/>
+      <c r="AI25" s="4"/>
+      <c r="AJ25" s="4"/>
+      <c r="AK25" s="4"/>
+      <c r="AL25" s="4"/>
+      <c r="AM25" s="4"/>
+      <c r="AN25" s="4"/>
+    </row>
+    <row r="26" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
@@ -2783,8 +3159,17 @@
       <c r="AC26" s="4"/>
       <c r="AD26" s="4"/>
       <c r="AE26" s="4"/>
-    </row>
-    <row r="27" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF26" s="4"/>
+      <c r="AG26" s="4"/>
+      <c r="AH26" s="4"/>
+      <c r="AI26" s="4"/>
+      <c r="AJ26" s="4"/>
+      <c r="AK26" s="4"/>
+      <c r="AL26" s="4"/>
+      <c r="AM26" s="4"/>
+      <c r="AN26" s="4"/>
+    </row>
+    <row r="27" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
@@ -2815,8 +3200,17 @@
       <c r="AC27" s="4"/>
       <c r="AD27" s="4"/>
       <c r="AE27" s="4"/>
-    </row>
-    <row r="28" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF27" s="4"/>
+      <c r="AG27" s="4"/>
+      <c r="AH27" s="4"/>
+      <c r="AI27" s="4"/>
+      <c r="AJ27" s="4"/>
+      <c r="AK27" s="4"/>
+      <c r="AL27" s="4"/>
+      <c r="AM27" s="4"/>
+      <c r="AN27" s="4"/>
+    </row>
+    <row r="28" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
@@ -2847,8 +3241,17 @@
       <c r="AC28" s="4"/>
       <c r="AD28" s="4"/>
       <c r="AE28" s="4"/>
-    </row>
-    <row r="29" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF28" s="4"/>
+      <c r="AG28" s="4"/>
+      <c r="AH28" s="4"/>
+      <c r="AI28" s="4"/>
+      <c r="AJ28" s="4"/>
+      <c r="AK28" s="4"/>
+      <c r="AL28" s="4"/>
+      <c r="AM28" s="4"/>
+      <c r="AN28" s="4"/>
+    </row>
+    <row r="29" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
@@ -2879,8 +3282,17 @@
       <c r="AC29" s="4"/>
       <c r="AD29" s="4"/>
       <c r="AE29" s="4"/>
-    </row>
-    <row r="30" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF29" s="4"/>
+      <c r="AG29" s="4"/>
+      <c r="AH29" s="4"/>
+      <c r="AI29" s="4"/>
+      <c r="AJ29" s="4"/>
+      <c r="AK29" s="4"/>
+      <c r="AL29" s="4"/>
+      <c r="AM29" s="4"/>
+      <c r="AN29" s="4"/>
+    </row>
+    <row r="30" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
@@ -2911,8 +3323,17 @@
       <c r="AC30" s="4"/>
       <c r="AD30" s="4"/>
       <c r="AE30" s="4"/>
-    </row>
-    <row r="31" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF30" s="4"/>
+      <c r="AG30" s="4"/>
+      <c r="AH30" s="4"/>
+      <c r="AI30" s="4"/>
+      <c r="AJ30" s="4"/>
+      <c r="AK30" s="4"/>
+      <c r="AL30" s="4"/>
+      <c r="AM30" s="4"/>
+      <c r="AN30" s="4"/>
+    </row>
+    <row r="31" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
@@ -2943,17 +3364,47 @@
       <c r="AC31" s="4"/>
       <c r="AD31" s="4"/>
       <c r="AE31" s="4"/>
+      <c r="AF31" s="4"/>
+      <c r="AG31" s="4"/>
+      <c r="AH31" s="4"/>
+      <c r="AI31" s="4"/>
+      <c r="AJ31" s="4"/>
+      <c r="AK31" s="4"/>
+      <c r="AL31" s="4"/>
+      <c r="AM31" s="4"/>
+      <c r="AN31" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="29">
+    <mergeCell ref="AK3:AK4"/>
+    <mergeCell ref="AL3:AL4"/>
+    <mergeCell ref="AM3:AM4"/>
+    <mergeCell ref="AN3:AN4"/>
+    <mergeCell ref="O2:T2"/>
+    <mergeCell ref="O3:Q3"/>
+    <mergeCell ref="AF3:AF4"/>
+    <mergeCell ref="AG3:AG4"/>
+    <mergeCell ref="AH3:AH4"/>
+    <mergeCell ref="AI3:AI4"/>
+    <mergeCell ref="AJ3:AJ4"/>
+    <mergeCell ref="X3:AA3"/>
+    <mergeCell ref="AB3:AE3"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="S3:S4"/>
+    <mergeCell ref="T3:T4"/>
+    <mergeCell ref="U3:U4"/>
+    <mergeCell ref="V3:V4"/>
+    <mergeCell ref="W3:W4"/>
     <mergeCell ref="B2:B4"/>
     <mergeCell ref="C3:H3"/>
     <mergeCell ref="I3:K3"/>
     <mergeCell ref="C2:N2"/>
-    <mergeCell ref="AB2:AE2"/>
-    <mergeCell ref="O2:R2"/>
-    <mergeCell ref="S2:U2"/>
-    <mergeCell ref="V2:AA2"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="AK2:AN2"/>
+    <mergeCell ref="U2:W2"/>
+    <mergeCell ref="X2:AJ2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/literature-management.xlsx
+++ b/literature-management.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jay/phd/papers/sok - a survey on software power monitoring tools/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0013F21-7523-A742-8072-2B376A976385}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E04D725B-A84F-DC47-B77A-8EBB90C1CC93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-10280" yWindow="-28140" windowWidth="50880" windowHeight="27980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="160" yWindow="920" windowWidth="29920" windowHeight="18560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tools" sheetId="1" r:id="rId1"/>
@@ -22,10 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="111">
-  <si>
-    <t>Tool_ID</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="115">
   <si>
     <t>Year</t>
   </si>
@@ -178,9 +175,6 @@
   </si>
   <si>
     <t>PowerJoular</t>
-  </si>
-  <si>
-    <t>ESUR</t>
   </si>
   <si>
     <t>e-Surgeon</t>
@@ -387,13 +381,31 @@
   </si>
   <si>
     <t>Backward Snawballing</t>
+  </si>
+  <si>
+    <t>yes (To be discussed : need to dive in a bit more)</t>
+  </si>
+  <si>
+    <t>yes ((To be discussed : need to dive in a bit more)</t>
+  </si>
+  <si>
+    <t>Source Code Instruction</t>
+  </si>
+  <si>
+    <t>~ms</t>
+  </si>
+  <si>
+    <t>Needed to compute baseline</t>
+  </si>
+  <si>
+    <t>open-source</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -433,8 +445,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -493,6 +512,12 @@
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.34998626667073579"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9D9D9"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
@@ -615,7 +640,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -667,27 +692,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -700,20 +713,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -731,21 +735,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -829,6 +821,27 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1154,543 +1167,487 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:K47"/>
+  <dimension ref="B2:K44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="C3" sqref="C3:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7" style="31" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.83203125" style="31" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.33203125" style="31" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="134.5" style="40" customWidth="1"/>
-    <col min="5" max="5" width="9.6640625" style="31" customWidth="1"/>
-    <col min="6" max="6" width="29" style="37" customWidth="1"/>
-    <col min="7" max="7" width="29.33203125" style="37" customWidth="1"/>
-    <col min="8" max="8" width="24.33203125" style="31" customWidth="1"/>
-    <col min="9" max="9" width="17.1640625" style="31" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.33203125" style="31" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="70.33203125" style="31" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="8.83203125" style="31"/>
+    <col min="1" max="1" width="7" style="27" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.83203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="134.5" style="33" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" style="27" customWidth="1"/>
+    <col min="6" max="6" width="29" style="30" customWidth="1"/>
+    <col min="7" max="7" width="29.33203125" style="30" customWidth="1"/>
+    <col min="8" max="8" width="24.33203125" style="27" customWidth="1"/>
+    <col min="9" max="9" width="17.1640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="70.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.83203125" style="27"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="20" x14ac:dyDescent="0.25">
       <c r="B2"/>
-      <c r="C2" s="77" t="s">
+      <c r="C2" s="66" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="68" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="68" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2" s="79" t="s">
-        <v>2</v>
-      </c>
-      <c r="G2" s="79" t="s">
+      <c r="H2" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="H2" s="29" t="s">
+      <c r="I2" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="I2" s="29" t="s">
+      <c r="J2" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="J2" s="29" t="s">
+      <c r="K2" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="K2" s="29" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="2:11" ht="72" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3"/>
-      <c r="C3" s="24" t="s">
+      <c r="C3" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="70" t="s">
+        <v>53</v>
+      </c>
+      <c r="E3" s="21">
+        <v>2022</v>
+      </c>
+      <c r="F3" s="71" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="32" t="s">
-        <v>55</v>
-      </c>
-      <c r="E3" s="24">
-        <v>2022</v>
-      </c>
-      <c r="F3" s="46" t="s">
+      <c r="G3" s="71" t="s">
         <v>29</v>
       </c>
-      <c r="G3" s="46" t="s">
+      <c r="H3" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="I3" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="H3" s="41" t="s">
-        <v>36</v>
-      </c>
-      <c r="I3" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="J3" s="41" t="s">
-        <v>36</v>
-      </c>
-      <c r="K3" s="46" t="s">
-        <v>102</v>
+      <c r="J3" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="K3" s="71" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="2:11" ht="52" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="46"/>
-      <c r="G4" s="46"/>
-      <c r="H4" s="41"/>
-      <c r="I4" s="25"/>
-      <c r="J4" s="41"/>
-      <c r="K4" s="46"/>
-    </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="C4" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="72" t="s">
+        <v>54</v>
+      </c>
+      <c r="E4" s="19">
+        <v>2023</v>
+      </c>
+      <c r="F4" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="G4" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="I4" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="J4" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="K4" s="29" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" ht="80" x14ac:dyDescent="0.2">
       <c r="B5"/>
-      <c r="C5" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="D5" s="34" t="s">
+      <c r="C5" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="D5" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="E5" s="19">
+        <v>2012</v>
+      </c>
+      <c r="F5" s="35" t="s">
+        <v>106</v>
+      </c>
+      <c r="G5" s="35" t="s">
+        <v>55</v>
+      </c>
+      <c r="H5" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="E5" s="21">
-        <v>2023</v>
-      </c>
-      <c r="F5" s="47" t="s">
+      <c r="I5" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="J5" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="G5" s="47" t="s">
+      <c r="K5" s="35" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" ht="64" x14ac:dyDescent="0.2">
+      <c r="B6"/>
+      <c r="C6" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" s="28" t="s">
+        <v>102</v>
+      </c>
+      <c r="E6" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="F6" s="35" t="s">
+        <v>69</v>
+      </c>
+      <c r="G6" s="35" t="s">
+        <v>104</v>
+      </c>
+      <c r="H6" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="I6" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="H5" s="42" t="s">
-        <v>36</v>
-      </c>
-      <c r="I5" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="J5" s="42" t="s">
-        <v>36</v>
-      </c>
-      <c r="K5" s="47" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B6"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="34"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="47"/>
-      <c r="G6" s="47"/>
-      <c r="H6" s="42"/>
-      <c r="I6" s="27"/>
-      <c r="J6" s="42"/>
-      <c r="K6" s="47"/>
+      <c r="J6" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="K6" s="35" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="7" spans="2:11" ht="46" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="34"/>
+      <c r="C7" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="69" t="s">
+        <v>33</v>
+      </c>
       <c r="E7" s="21"/>
-      <c r="F7" s="47"/>
-      <c r="G7" s="47"/>
-      <c r="H7" s="42"/>
-      <c r="I7" s="27"/>
-      <c r="J7" s="42"/>
-      <c r="K7" s="47"/>
+      <c r="F7" s="67"/>
+      <c r="G7" s="67" t="s">
+        <v>108</v>
+      </c>
+      <c r="H7" s="34" t="s">
+        <v>107</v>
+      </c>
+      <c r="I7" s="22"/>
+      <c r="J7" s="34"/>
+      <c r="K7" s="67"/>
     </row>
     <row r="8" spans="2:11" ht="73" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8"/>
-      <c r="C8" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="D8" s="36" t="s">
-        <v>54</v>
-      </c>
-      <c r="E8" s="19">
-        <v>2012</v>
-      </c>
-      <c r="F8" s="44" t="s">
-        <v>108</v>
-      </c>
-      <c r="G8" s="44" t="s">
-        <v>57</v>
-      </c>
-      <c r="H8" s="44" t="s">
-        <v>58</v>
-      </c>
-      <c r="I8" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="J8" s="39" t="s">
-        <v>36</v>
-      </c>
-      <c r="K8" s="44" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="9" spans="2:11" ht="64" x14ac:dyDescent="0.2">
+      <c r="C8" s="19"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="32"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="32"/>
+      <c r="K8" s="32"/>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B9"/>
-      <c r="C9" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="D9" s="36" t="s">
-        <v>104</v>
-      </c>
-      <c r="E9" s="19" t="s">
-        <v>107</v>
-      </c>
-      <c r="F9" s="44" t="s">
-        <v>71</v>
-      </c>
-      <c r="G9" s="44" t="s">
-        <v>106</v>
-      </c>
-      <c r="H9" s="39" t="s">
-        <v>36</v>
-      </c>
-      <c r="I9" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="J9" s="39" t="s">
-        <v>36</v>
-      </c>
-      <c r="K9" s="44" t="s">
-        <v>105</v>
-      </c>
+      <c r="C9" s="19"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="35"/>
+      <c r="G9" s="35"/>
+      <c r="H9" s="32"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="32"/>
+      <c r="K9" s="32"/>
     </row>
     <row r="10" spans="2:11" ht="56" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10"/>
-      <c r="C10" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="D10" s="35" t="s">
-        <v>34</v>
-      </c>
-      <c r="E10" s="22"/>
-      <c r="F10" s="78"/>
-      <c r="G10" s="78" t="s">
-        <v>110</v>
-      </c>
-      <c r="H10" s="43" t="s">
-        <v>109</v>
-      </c>
-      <c r="I10" s="23"/>
-      <c r="J10" s="43"/>
-      <c r="K10" s="78"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="35"/>
+      <c r="G10" s="35"/>
+      <c r="H10" s="32"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="32"/>
+      <c r="K10" s="32"/>
     </row>
     <row r="11" spans="2:11" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11"/>
       <c r="C11" s="19"/>
-      <c r="D11" s="39"/>
+      <c r="D11" s="32"/>
       <c r="E11" s="19"/>
-      <c r="F11" s="44"/>
-      <c r="G11" s="44"/>
-      <c r="H11" s="39"/>
+      <c r="F11" s="35"/>
+      <c r="G11" s="35"/>
+      <c r="H11" s="32"/>
       <c r="I11" s="20"/>
-      <c r="J11" s="39"/>
-      <c r="K11" s="39"/>
+      <c r="J11" s="32"/>
+      <c r="K11" s="32"/>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B12"/>
       <c r="C12" s="19"/>
-      <c r="D12" s="39"/>
+      <c r="D12" s="32"/>
       <c r="E12" s="19"/>
-      <c r="F12" s="44"/>
-      <c r="G12" s="44"/>
-      <c r="H12" s="39"/>
+      <c r="F12" s="35"/>
+      <c r="G12" s="35"/>
+      <c r="H12" s="32"/>
       <c r="I12" s="20"/>
-      <c r="J12" s="39"/>
-      <c r="K12" s="39"/>
+      <c r="J12" s="32"/>
+      <c r="K12" s="32"/>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B13"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="38"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="44"/>
-      <c r="G13" s="44"/>
-      <c r="H13" s="39"/>
-      <c r="I13" s="20"/>
-      <c r="J13" s="39"/>
-      <c r="K13" s="39"/>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B14"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="39"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="44"/>
-      <c r="G14" s="44"/>
-      <c r="H14" s="39"/>
-      <c r="I14" s="20"/>
-      <c r="J14" s="39"/>
-      <c r="K14" s="39"/>
+      <c r="C14" s="24"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="36"/>
+      <c r="G14" s="36"/>
+      <c r="H14" s="33"/>
+      <c r="J14" s="33"/>
+      <c r="K14" s="33"/>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B15"/>
-      <c r="C15" s="19"/>
-      <c r="D15" s="39"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="44"/>
-      <c r="G15" s="44"/>
-      <c r="H15" s="39"/>
-      <c r="I15" s="20"/>
-      <c r="J15" s="39"/>
-      <c r="K15" s="39"/>
+      <c r="B15" s="24"/>
+      <c r="C15" s="24"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="36"/>
+      <c r="G15" s="36"/>
+      <c r="H15" s="33"/>
+      <c r="J15" s="33"/>
+      <c r="K15" s="33"/>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B16"/>
+      <c r="B16" s="24"/>
+      <c r="C16" s="24"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="36"/>
+      <c r="G16" s="36"/>
+      <c r="H16" s="33"/>
+      <c r="J16" s="33"/>
+      <c r="K16" s="33"/>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B17"/>
-      <c r="C17" s="28"/>
-      <c r="E17" s="28"/>
-      <c r="F17" s="45"/>
-      <c r="G17" s="45"/>
-      <c r="H17" s="40"/>
-      <c r="J17" s="40"/>
-      <c r="K17" s="40"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="24"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="36"/>
+      <c r="G17" s="36"/>
+      <c r="H17" s="33"/>
+      <c r="J17" s="33"/>
+      <c r="K17" s="33"/>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B18" s="28"/>
-      <c r="C18" s="28"/>
-      <c r="E18" s="28"/>
-      <c r="F18" s="45"/>
-      <c r="G18" s="45"/>
-      <c r="H18" s="40"/>
-      <c r="J18" s="40"/>
-      <c r="K18" s="40"/>
+      <c r="B18" s="24"/>
+      <c r="C18" s="24"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="36"/>
+      <c r="G18" s="36"/>
+      <c r="H18" s="33"/>
+      <c r="J18" s="33"/>
+      <c r="K18" s="33"/>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B19" s="28"/>
-      <c r="C19" s="28"/>
-      <c r="E19" s="28"/>
-      <c r="F19" s="45"/>
-      <c r="G19" s="45"/>
-      <c r="H19" s="40"/>
-      <c r="J19" s="40"/>
-      <c r="K19" s="40"/>
+      <c r="B19" s="24"/>
+      <c r="C19" s="24"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="36"/>
+      <c r="G19" s="36"/>
+      <c r="H19" s="33"/>
+      <c r="J19" s="33"/>
+      <c r="K19" s="33"/>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B20" s="28"/>
-      <c r="C20" s="28"/>
-      <c r="E20" s="28"/>
-      <c r="F20" s="45"/>
-      <c r="G20" s="45"/>
-      <c r="H20" s="40"/>
-      <c r="J20" s="40"/>
-      <c r="K20" s="40"/>
+      <c r="B20" s="24"/>
+      <c r="C20" s="24"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="36"/>
+      <c r="G20" s="36"/>
+      <c r="H20" s="33"/>
+      <c r="J20" s="33"/>
+      <c r="K20" s="33"/>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B21" s="28"/>
-      <c r="C21" s="28"/>
-      <c r="E21" s="28"/>
-      <c r="F21" s="45"/>
-      <c r="G21" s="45"/>
-      <c r="H21" s="40"/>
-      <c r="J21" s="40"/>
-      <c r="K21" s="40"/>
+      <c r="B21" s="24"/>
+      <c r="C21" s="24"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="36"/>
+      <c r="G21" s="36"/>
+      <c r="H21" s="33"/>
+      <c r="J21" s="33"/>
+      <c r="K21" s="33"/>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B22" s="28"/>
-      <c r="C22" s="28"/>
-      <c r="E22" s="28"/>
-      <c r="F22" s="45"/>
-      <c r="G22" s="45"/>
-      <c r="H22" s="40"/>
-      <c r="J22" s="40"/>
-      <c r="K22" s="40"/>
+      <c r="B22" s="24"/>
+      <c r="C22" s="24"/>
+      <c r="E22" s="24"/>
+      <c r="F22" s="36"/>
+      <c r="G22" s="36"/>
+      <c r="H22" s="33"/>
+      <c r="J22" s="33"/>
+      <c r="K22" s="33"/>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B23" s="28"/>
-      <c r="C23" s="28"/>
-      <c r="E23" s="28"/>
-      <c r="F23" s="45"/>
-      <c r="G23" s="45"/>
-      <c r="H23" s="40"/>
-      <c r="J23" s="40"/>
-      <c r="K23" s="40"/>
+      <c r="B23" s="24"/>
+      <c r="C23" s="24"/>
+      <c r="E23" s="24"/>
+      <c r="F23" s="36"/>
+      <c r="G23" s="36"/>
+      <c r="H23" s="33"/>
+      <c r="J23" s="33"/>
+      <c r="K23" s="33"/>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B24" s="28"/>
-      <c r="C24" s="28"/>
-      <c r="E24" s="28"/>
-      <c r="F24" s="45"/>
-      <c r="G24" s="45"/>
-      <c r="H24" s="40"/>
-      <c r="J24" s="40"/>
-      <c r="K24" s="40"/>
+      <c r="B24" s="24"/>
+      <c r="C24" s="24"/>
+      <c r="E24" s="24"/>
+      <c r="F24" s="36"/>
+      <c r="G24" s="36"/>
+      <c r="H24" s="33"/>
+      <c r="J24" s="33"/>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B25" s="28"/>
-      <c r="C25" s="28"/>
-      <c r="E25" s="28"/>
-      <c r="F25" s="45"/>
-      <c r="G25" s="45"/>
-      <c r="H25" s="40"/>
-      <c r="J25" s="40"/>
-      <c r="K25" s="40"/>
+      <c r="B25" s="24"/>
+      <c r="C25" s="24"/>
+      <c r="E25" s="24"/>
+      <c r="F25" s="36"/>
+      <c r="G25" s="36"/>
+      <c r="H25" s="33"/>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B26" s="28"/>
-      <c r="C26" s="28"/>
-      <c r="E26" s="28"/>
-      <c r="F26" s="45"/>
-      <c r="G26" s="45"/>
-      <c r="H26" s="40"/>
-      <c r="J26" s="40"/>
-      <c r="K26" s="40"/>
+      <c r="B26" s="24"/>
+      <c r="C26" s="24"/>
+      <c r="E26" s="24"/>
+      <c r="F26" s="36"/>
+      <c r="G26" s="36"/>
+      <c r="H26" s="33"/>
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B27" s="28"/>
-      <c r="C27" s="28"/>
-      <c r="E27" s="28"/>
-      <c r="F27" s="45"/>
-      <c r="G27" s="45"/>
-      <c r="H27" s="40"/>
-      <c r="J27" s="40"/>
+      <c r="B27" s="24"/>
+      <c r="C27" s="24"/>
+      <c r="E27" s="24"/>
+      <c r="F27" s="36"/>
+      <c r="G27" s="36"/>
+      <c r="H27" s="33"/>
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B28" s="28"/>
-      <c r="C28" s="28"/>
-      <c r="E28" s="28"/>
-      <c r="F28" s="45"/>
-      <c r="G28" s="45"/>
-      <c r="H28" s="40"/>
+      <c r="B28" s="24"/>
+      <c r="C28" s="24"/>
+      <c r="F28" s="36"/>
+      <c r="G28" s="36"/>
+      <c r="H28" s="33"/>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B29" s="28"/>
-      <c r="C29" s="28"/>
-      <c r="E29" s="28"/>
-      <c r="F29" s="45"/>
-      <c r="G29" s="45"/>
-      <c r="H29" s="40"/>
+      <c r="B29" s="24"/>
+      <c r="C29" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="F29" s="36"/>
+      <c r="G29" s="36"/>
+      <c r="H29" s="33"/>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B30" s="28"/>
-      <c r="C30" s="28"/>
-      <c r="E30" s="28"/>
-      <c r="F30" s="45"/>
-      <c r="G30" s="45"/>
-      <c r="H30" s="40"/>
+      <c r="B30" s="24"/>
+      <c r="C30" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="F30" s="36"/>
+      <c r="G30" s="36"/>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B31" s="28"/>
-      <c r="C31" s="28"/>
-      <c r="F31" s="45"/>
-      <c r="G31" s="45"/>
-      <c r="H31" s="40"/>
+      <c r="B31" s="24"/>
+      <c r="C31" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="G31" s="36"/>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B32" s="28"/>
-      <c r="C32" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="F32" s="45"/>
-      <c r="G32" s="45"/>
-      <c r="H32" s="40"/>
+      <c r="B32" s="24"/>
+      <c r="C32" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="G32" s="36"/>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B33" s="28"/>
-      <c r="C33" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="F33" s="45"/>
-      <c r="G33" s="45"/>
+      <c r="B33" s="24"/>
+      <c r="C33" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="G33" s="36"/>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B34" s="28"/>
-      <c r="C34" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="G34" s="45"/>
+      <c r="B34" s="24"/>
+      <c r="C34" s="23" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B35" s="28"/>
-      <c r="C35" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="G35" s="45"/>
+      <c r="C35" s="23" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B36" s="28"/>
-      <c r="C36" s="26" t="s">
-        <v>44</v>
-      </c>
-      <c r="G36" s="45"/>
+      <c r="C36" s="23" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B37" s="28"/>
-      <c r="C37" s="26" t="s">
-        <v>45</v>
+      <c r="C37" s="23" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="C38" s="26" t="s">
-        <v>46</v>
+      <c r="C38" s="23" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="C39" s="26" t="s">
-        <v>47</v>
+      <c r="C39" s="23" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="C40" s="26" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="C41" s="26" t="s">
-        <v>49</v>
+      <c r="C40" s="23" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="C42" s="26" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="C43" s="26" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="C45" s="19" t="s">
+      <c r="C42" s="19" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="44" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C44" s="19" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="C47" s="19" t="s">
-        <v>39</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="J5:J7"/>
-    <mergeCell ref="K5:K7"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="D5:D7"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="C5:C7"/>
-    <mergeCell ref="E5:E7"/>
-    <mergeCell ref="F5:F7"/>
-    <mergeCell ref="G5:G7"/>
-    <mergeCell ref="H5:H7"/>
-    <mergeCell ref="I5:I7"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:H4"/>
-  </mergeCells>
-  <conditionalFormatting sqref="I3:I5 I8:I12">
+  <conditionalFormatting sqref="I3:I9">
     <cfRule type="beginsWith" dxfId="1" priority="1" operator="beginsWith" text="Not">
       <formula>LEFT(I3,LEN("Not"))="Not"</formula>
     </cfRule>
@@ -1700,9 +1657,9 @@
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="D3" r:id="rId1" display="https://doi.org/10.48550/arXiv.2506.23967" xr:uid="{8103FB26-0DDA-5847-A4CA-225934B7A72C}"/>
-    <hyperlink ref="D5" r:id="rId2" display="https://doi.org/10.1016/j.comnet.2024.110371" xr:uid="{A8F40409-1E18-E44C-80FF-10710492D78A}"/>
-    <hyperlink ref="D10" r:id="rId3" display="https://doi.org/10.1016/j.comnet.2024.110371" xr:uid="{DF0E70E7-400C-E04D-A3BA-64A05137BB33}"/>
-    <hyperlink ref="D8" r:id="rId4" display="https://doi.org/10.1007/s10515-014-0171-1" xr:uid="{444CAD35-E26B-C443-835C-7E3C25D901AA}"/>
+    <hyperlink ref="D4" r:id="rId2" display="https://doi.org/10.1016/j.comnet.2024.110371" xr:uid="{A8F40409-1E18-E44C-80FF-10710492D78A}"/>
+    <hyperlink ref="D7" r:id="rId3" display="https://doi.org/10.1016/j.comnet.2024.110371" xr:uid="{DF0E70E7-400C-E04D-A3BA-64A05137BB33}"/>
+    <hyperlink ref="D5" r:id="rId4" display="https://doi.org/10.1007/s10515-014-0171-1" xr:uid="{444CAD35-E26B-C443-835C-7E3C25D901AA}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -1714,16 +1671,16 @@
   <dimension ref="B2:J21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B3" sqref="B3:B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.83203125" customWidth="1"/>
+    <col min="3" max="3" width="40.5" customWidth="1"/>
     <col min="4" max="4" width="29.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="32.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="37.1640625" customWidth="1"/>
     <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="22.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="32.33203125" bestFit="1" customWidth="1"/>
@@ -1733,89 +1690,121 @@
   <sheetData>
     <row r="2" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="H2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="I2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="J2" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J2" s="5" t="s">
-        <v>20</v>
-      </c>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
+      <c r="B3" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>57</v>
+      </c>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
+      <c r="J3" s="4" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
+      <c r="B4" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>57</v>
+      </c>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
+      <c r="J4" s="4" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B5" s="4" t="s">
-        <v>52</v>
+      <c r="B5" s="19" t="s">
+        <v>51</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>59</v>
+        <v>109</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
       <c r="J5" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
+      <c r="B6" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>57</v>
+      </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
+      <c r="J6" s="4" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B7" s="4"/>
+      <c r="B7" s="21" t="s">
+        <v>32</v>
+      </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
@@ -1990,13 +1979,13 @@
   <dimension ref="B2:AN31"/>
   <sheetViews>
     <sheetView zoomScale="89" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B4"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9.33203125" customWidth="1"/>
-    <col min="2" max="2" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.1640625" customWidth="1"/>
     <col min="3" max="3" width="5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.33203125" bestFit="1" customWidth="1"/>
@@ -2010,7 +1999,7 @@
     <col min="14" max="14" width="14" customWidth="1"/>
     <col min="15" max="16" width="13.33203125" customWidth="1"/>
     <col min="17" max="17" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="23.5" customWidth="1"/>
     <col min="19" max="19" width="14.1640625" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="18.5" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="17.83203125" bestFit="1" customWidth="1"/>
@@ -2038,11 +2027,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:40" ht="24" x14ac:dyDescent="0.3">
-      <c r="B2" s="48" t="s">
-        <v>0</v>
+      <c r="B2" s="37" t="s">
+        <v>20</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D2" s="10"/>
       <c r="E2" s="10"/>
@@ -2056,7 +2045,7 @@
       <c r="M2" s="10"/>
       <c r="N2" s="10"/>
       <c r="O2" s="11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="P2" s="11"/>
       <c r="Q2" s="11"/>
@@ -2064,12 +2053,12 @@
       <c r="S2" s="11"/>
       <c r="T2" s="12"/>
       <c r="U2" s="13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="V2" s="14"/>
       <c r="W2" s="15"/>
       <c r="X2" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Y2" s="17"/>
       <c r="Z2" s="17"/>
@@ -2084,223 +2073,263 @@
       <c r="AI2" s="17"/>
       <c r="AJ2" s="18"/>
       <c r="AK2" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AL2" s="7"/>
       <c r="AM2" s="7"/>
       <c r="AN2" s="8"/>
     </row>
     <row r="3" spans="2:40" ht="54" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="48"/>
-      <c r="C3" s="71" t="s">
+      <c r="B3" s="37"/>
+      <c r="C3" s="60" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="61"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="61"/>
+      <c r="H3" s="62"/>
+      <c r="I3" s="60" t="s">
+        <v>2</v>
+      </c>
+      <c r="J3" s="61"/>
+      <c r="K3" s="61"/>
+      <c r="L3" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="M3" s="51" t="s">
+        <v>75</v>
+      </c>
+      <c r="N3" s="51" t="s">
+        <v>76</v>
+      </c>
+      <c r="O3" s="64" t="s">
+        <v>77</v>
+      </c>
+      <c r="P3" s="64"/>
+      <c r="Q3" s="64"/>
+      <c r="R3" s="52" t="s">
+        <v>78</v>
+      </c>
+      <c r="S3" s="52" t="s">
+        <v>79</v>
+      </c>
+      <c r="T3" s="45" t="s">
+        <v>6</v>
+      </c>
+      <c r="U3" s="53" t="s">
+        <v>80</v>
+      </c>
+      <c r="V3" s="53" t="s">
+        <v>81</v>
+      </c>
+      <c r="W3" s="53" t="s">
+        <v>82</v>
+      </c>
+      <c r="X3" s="63" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y3" s="63"/>
+      <c r="Z3" s="63"/>
+      <c r="AA3" s="63"/>
+      <c r="AB3" s="63" t="s">
+        <v>71</v>
+      </c>
+      <c r="AC3" s="63"/>
+      <c r="AD3" s="63"/>
+      <c r="AE3" s="63"/>
+      <c r="AF3" s="54" t="s">
+        <v>83</v>
+      </c>
+      <c r="AG3" s="48" t="s">
+        <v>8</v>
+      </c>
+      <c r="AH3" s="54" t="s">
+        <v>84</v>
+      </c>
+      <c r="AI3" s="54" t="s">
+        <v>85</v>
+      </c>
+      <c r="AJ3" s="54" t="s">
+        <v>86</v>
+      </c>
+      <c r="AK3" s="55" t="s">
+        <v>87</v>
+      </c>
+      <c r="AL3" s="55" t="s">
+        <v>88</v>
+      </c>
+      <c r="AM3" s="55" t="s">
+        <v>89</v>
+      </c>
+      <c r="AN3" s="55" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="2:40" ht="81" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="40"/>
+      <c r="C4" s="58" t="s">
+        <v>59</v>
+      </c>
+      <c r="D4" s="58" t="s">
+        <v>60</v>
+      </c>
+      <c r="E4" s="58" t="s">
+        <v>61</v>
+      </c>
+      <c r="F4" s="58" t="s">
+        <v>62</v>
+      </c>
+      <c r="G4" s="59" t="s">
+        <v>63</v>
+      </c>
+      <c r="H4" s="59" t="s">
+        <v>64</v>
+      </c>
+      <c r="I4" s="57" t="s">
+        <v>95</v>
+      </c>
+      <c r="J4" s="57" t="s">
+        <v>96</v>
+      </c>
+      <c r="K4" s="59" t="s">
+        <v>66</v>
+      </c>
+      <c r="L4" s="44"/>
+      <c r="M4" s="44"/>
+      <c r="N4" s="44"/>
+      <c r="O4" s="65" t="s">
+        <v>97</v>
+      </c>
+      <c r="P4" s="65" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q4" s="65" t="s">
+        <v>99</v>
+      </c>
+      <c r="R4" s="46"/>
+      <c r="S4" s="46"/>
+      <c r="T4" s="46"/>
+      <c r="U4" s="47"/>
+      <c r="V4" s="47"/>
+      <c r="W4" s="47"/>
+      <c r="X4" s="56" t="s">
+        <v>94</v>
+      </c>
+      <c r="Y4" s="42" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z4" s="56" t="s">
+        <v>93</v>
+      </c>
+      <c r="AA4" s="56" t="s">
+        <v>92</v>
+      </c>
+      <c r="AB4" s="42" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC4" s="42" t="s">
+        <v>68</v>
+      </c>
+      <c r="AD4" s="42" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE4" s="56" t="s">
+        <v>91</v>
+      </c>
+      <c r="AF4" s="49"/>
+      <c r="AG4" s="49"/>
+      <c r="AH4" s="49"/>
+      <c r="AI4" s="49"/>
+      <c r="AJ4" s="49"/>
+      <c r="AK4" s="50"/>
+      <c r="AL4" s="50"/>
+      <c r="AM4" s="50"/>
+      <c r="AN4" s="50"/>
+    </row>
+    <row r="5" spans="2:40" ht="17" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="73" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="72"/>
-      <c r="E3" s="72"/>
-      <c r="F3" s="72"/>
-      <c r="G3" s="72"/>
-      <c r="H3" s="73"/>
-      <c r="I3" s="71" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="72"/>
-      <c r="K3" s="72"/>
-      <c r="L3" s="54" t="s">
-        <v>4</v>
-      </c>
-      <c r="M3" s="62" t="s">
-        <v>77</v>
-      </c>
-      <c r="N3" s="62" t="s">
-        <v>78</v>
-      </c>
-      <c r="O3" s="75" t="s">
-        <v>79</v>
-      </c>
-      <c r="P3" s="75"/>
-      <c r="Q3" s="75"/>
-      <c r="R3" s="63" t="s">
-        <v>80</v>
-      </c>
-      <c r="S3" s="63" t="s">
-        <v>81</v>
-      </c>
-      <c r="T3" s="56" t="s">
-        <v>7</v>
-      </c>
-      <c r="U3" s="64" t="s">
-        <v>82</v>
-      </c>
-      <c r="V3" s="64" t="s">
-        <v>83</v>
-      </c>
-      <c r="W3" s="64" t="s">
-        <v>84</v>
-      </c>
-      <c r="X3" s="74" t="s">
-        <v>72</v>
-      </c>
-      <c r="Y3" s="74"/>
-      <c r="Z3" s="74"/>
-      <c r="AA3" s="74"/>
-      <c r="AB3" s="74" t="s">
-        <v>73</v>
-      </c>
-      <c r="AC3" s="74"/>
-      <c r="AD3" s="74"/>
-      <c r="AE3" s="74"/>
-      <c r="AF3" s="65" t="s">
-        <v>85</v>
-      </c>
-      <c r="AG3" s="59" t="s">
-        <v>9</v>
-      </c>
-      <c r="AH3" s="65" t="s">
-        <v>86</v>
-      </c>
-      <c r="AI3" s="65" t="s">
-        <v>87</v>
-      </c>
-      <c r="AJ3" s="65" t="s">
-        <v>88</v>
-      </c>
-      <c r="AK3" s="66" t="s">
-        <v>89</v>
-      </c>
-      <c r="AL3" s="66" t="s">
-        <v>90</v>
-      </c>
-      <c r="AM3" s="66" t="s">
-        <v>91</v>
-      </c>
-      <c r="AN3" s="66" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="4" spans="2:40" ht="81" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="51"/>
-      <c r="C4" s="69" t="s">
-        <v>61</v>
-      </c>
-      <c r="D4" s="69" t="s">
-        <v>62</v>
-      </c>
-      <c r="E4" s="69" t="s">
-        <v>63</v>
-      </c>
-      <c r="F4" s="69" t="s">
-        <v>64</v>
-      </c>
-      <c r="G4" s="70" t="s">
+      <c r="C5" s="38" t="s">
         <v>65</v>
       </c>
-      <c r="H4" s="70" t="s">
-        <v>66</v>
-      </c>
-      <c r="I4" s="68" t="s">
-        <v>97</v>
-      </c>
-      <c r="J4" s="68" t="s">
-        <v>98</v>
-      </c>
-      <c r="K4" s="70" t="s">
-        <v>68</v>
-      </c>
-      <c r="L4" s="55"/>
-      <c r="M4" s="55"/>
-      <c r="N4" s="55"/>
-      <c r="O4" s="76" t="s">
-        <v>99</v>
-      </c>
-      <c r="P4" s="76" t="s">
-        <v>100</v>
-      </c>
-      <c r="Q4" s="76" t="s">
-        <v>101</v>
-      </c>
-      <c r="R4" s="57"/>
-      <c r="S4" s="57"/>
-      <c r="T4" s="57"/>
-      <c r="U4" s="58"/>
-      <c r="V4" s="58"/>
-      <c r="W4" s="58"/>
-      <c r="X4" s="67" t="s">
-        <v>96</v>
-      </c>
-      <c r="Y4" s="53" t="s">
-        <v>76</v>
-      </c>
-      <c r="Z4" s="67" t="s">
-        <v>95</v>
-      </c>
-      <c r="AA4" s="67" t="s">
-        <v>94</v>
-      </c>
-      <c r="AB4" s="53" t="s">
-        <v>74</v>
-      </c>
-      <c r="AC4" s="53" t="s">
-        <v>70</v>
-      </c>
-      <c r="AD4" s="53" t="s">
-        <v>75</v>
-      </c>
-      <c r="AE4" s="67" t="s">
-        <v>93</v>
-      </c>
-      <c r="AF4" s="60"/>
-      <c r="AG4" s="60"/>
-      <c r="AH4" s="60"/>
-      <c r="AI4" s="60"/>
-      <c r="AJ4" s="60"/>
-      <c r="AK4" s="61"/>
-      <c r="AL4" s="61"/>
-      <c r="AM4" s="61"/>
-      <c r="AN4" s="61"/>
-    </row>
-    <row r="5" spans="2:40" ht="17" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="50"/>
-      <c r="C5" s="50"/>
-      <c r="D5" s="50"/>
-      <c r="E5" s="50"/>
-      <c r="F5" s="50"/>
-      <c r="G5" s="50"/>
-      <c r="H5" s="50"/>
-      <c r="I5" s="50"/>
-      <c r="J5" s="50"/>
-      <c r="K5" s="50"/>
-      <c r="L5" s="50"/>
-      <c r="M5" s="50"/>
-      <c r="N5" s="50"/>
-      <c r="O5" s="50"/>
-      <c r="P5" s="50"/>
-      <c r="Q5" s="50"/>
-      <c r="R5" s="50"/>
-      <c r="S5" s="50"/>
-      <c r="T5" s="50"/>
-      <c r="U5" s="50"/>
-      <c r="V5" s="50"/>
-      <c r="W5" s="50"/>
-      <c r="X5" s="50"/>
-      <c r="Y5" s="50"/>
-      <c r="Z5" s="50"/>
-      <c r="AA5" s="50"/>
-      <c r="AB5" s="50"/>
-      <c r="AC5" s="50"/>
-      <c r="AD5" s="50"/>
-      <c r="AE5" s="50"/>
-      <c r="AF5" s="50"/>
-      <c r="AG5" s="50"/>
-      <c r="AH5" s="50"/>
-      <c r="AI5" s="50"/>
-      <c r="AJ5" s="50"/>
-      <c r="AK5" s="50"/>
-      <c r="AL5" s="50"/>
-      <c r="AM5" s="50"/>
+      <c r="D5" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="E5" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="F5" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="G5" s="39"/>
+      <c r="H5" s="39"/>
+      <c r="I5" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="J5" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="K5" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="L5" s="39" t="s">
+        <v>111</v>
+      </c>
+      <c r="M5" s="39" t="s">
+        <v>112</v>
+      </c>
+      <c r="N5" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="O5" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="P5" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q5" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="R5" s="39" t="s">
+        <v>113</v>
+      </c>
+      <c r="S5" s="39"/>
+      <c r="T5" s="39"/>
+      <c r="U5" s="39"/>
+      <c r="V5" s="39"/>
+      <c r="W5" s="39"/>
+      <c r="X5" s="39" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y5" s="39"/>
+      <c r="Z5" s="39"/>
+      <c r="AA5" s="39"/>
+      <c r="AB5" s="39" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC5" s="39"/>
+      <c r="AD5" s="39"/>
+      <c r="AE5" s="39"/>
+      <c r="AF5" s="39"/>
+      <c r="AG5" s="39" t="s">
+        <v>65</v>
+      </c>
+      <c r="AH5" s="39"/>
+      <c r="AI5" s="39"/>
+      <c r="AJ5" s="39"/>
+      <c r="AK5" s="39" t="s">
+        <v>114</v>
+      </c>
+      <c r="AL5" s="39"/>
+      <c r="AM5" s="39"/>
       <c r="AN5" s="4"/>
     </row>
     <row r="6" spans="2:40" x14ac:dyDescent="0.2">
-      <c r="B6" s="4"/>
+      <c r="B6" s="74" t="s">
+        <v>31</v>
+      </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
@@ -2341,30 +2370,30 @@
       <c r="AN6" s="4"/>
     </row>
     <row r="7" spans="2:40" x14ac:dyDescent="0.2">
-      <c r="B7" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C7" s="49" t="s">
-        <v>67</v>
+      <c r="B7" s="74" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" s="38" t="s">
+        <v>65</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
-      <c r="F7" s="49" t="s">
-        <v>67</v>
+      <c r="F7" s="38" t="s">
+        <v>65</v>
       </c>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
-      <c r="I7" s="49" t="s">
+      <c r="I7" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="J7" s="38"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="41" t="s">
         <v>67</v>
-      </c>
-      <c r="J7" s="49"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="52" t="s">
-        <v>69</v>
       </c>
       <c r="M7" s="4"/>
       <c r="Q7" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="R7" s="4"/>
       <c r="S7" s="4"/>
@@ -2391,7 +2420,9 @@
       <c r="AN7" s="4"/>
     </row>
     <row r="8" spans="2:40" x14ac:dyDescent="0.2">
-      <c r="B8" s="4"/>
+      <c r="B8" s="74" t="s">
+        <v>39</v>
+      </c>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
@@ -2432,7 +2463,9 @@
       <c r="AN8" s="4"/>
     </row>
     <row r="9" spans="2:40" x14ac:dyDescent="0.2">
-      <c r="B9" s="4"/>
+      <c r="B9" s="75" t="s">
+        <v>32</v>
+      </c>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>

--- a/literature-management.xlsx
+++ b/literature-management.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jay/phd/papers/sok - a survey on software power monitoring tools/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E04D725B-A84F-DC47-B77A-8EBB90C1CC93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9EB4E29-021A-B949-988C-5760C58B83E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="160" yWindow="920" windowWidth="29920" windowHeight="18560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="160" yWindow="920" windowWidth="29920" windowHeight="18560" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tools" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="116">
   <si>
     <t>Year</t>
   </si>
@@ -399,6 +399,9 @@
   </si>
   <si>
     <t>open-source</t>
+  </si>
+  <si>
+    <t>case studies</t>
   </si>
 </sst>
 </file>
@@ -1169,8 +1172,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:K44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:C7"/>
+    <sheetView topLeftCell="B2" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1670,7 +1673,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:J21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="B3" sqref="B3:B7"/>
     </sheetView>
   </sheetViews>
@@ -1976,10 +1979,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="B2:AN31"/>
+  <dimension ref="B2:AO31"/>
   <sheetViews>
-    <sheetView zoomScale="89" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="89" workbookViewId="0">
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2026,7 +2029,7 @@
     <col min="42" max="42" width="29" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:40" ht="24" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:41" ht="24" x14ac:dyDescent="0.3">
       <c r="B2" s="37" t="s">
         <v>20</v>
       </c>
@@ -2079,7 +2082,7 @@
       <c r="AM2" s="7"/>
       <c r="AN2" s="8"/>
     </row>
-    <row r="3" spans="2:40" ht="54" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:41" ht="54" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="37"/>
       <c r="C3" s="60" t="s">
         <v>26</v>
@@ -2165,8 +2168,11 @@
       <c r="AN3" s="55" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="4" spans="2:40" ht="81" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AO3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="4" spans="2:41" ht="81" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="40"/>
       <c r="C4" s="58" t="s">
         <v>59</v>
@@ -2247,7 +2253,7 @@
       <c r="AM4" s="50"/>
       <c r="AN4" s="50"/>
     </row>
-    <row r="5" spans="2:40" ht="17" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:41" ht="17" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B5" s="73" t="s">
         <v>27</v>
       </c>
@@ -2326,7 +2332,7 @@
       <c r="AM5" s="39"/>
       <c r="AN5" s="4"/>
     </row>
-    <row r="6" spans="2:40" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B6" s="74" t="s">
         <v>31</v>
       </c>
@@ -2369,7 +2375,7 @@
       <c r="AM6" s="4"/>
       <c r="AN6" s="4"/>
     </row>
-    <row r="7" spans="2:40" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B7" s="74" t="s">
         <v>51</v>
       </c>
@@ -2419,7 +2425,7 @@
       <c r="AM7" s="4"/>
       <c r="AN7" s="4"/>
     </row>
-    <row r="8" spans="2:40" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B8" s="74" t="s">
         <v>39</v>
       </c>
@@ -2462,7 +2468,7 @@
       <c r="AM8" s="4"/>
       <c r="AN8" s="4"/>
     </row>
-    <row r="9" spans="2:40" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B9" s="75" t="s">
         <v>32</v>
       </c>
@@ -2505,7 +2511,7 @@
       <c r="AM9" s="4"/>
       <c r="AN9" s="4"/>
     </row>
-    <row r="10" spans="2:40" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
@@ -2546,7 +2552,7 @@
       <c r="AM10" s="4"/>
       <c r="AN10" s="4"/>
     </row>
-    <row r="11" spans="2:40" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -2587,7 +2593,7 @@
       <c r="AM11" s="4"/>
       <c r="AN11" s="4"/>
     </row>
-    <row r="12" spans="2:40" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
@@ -2628,7 +2634,7 @@
       <c r="AM12" s="4"/>
       <c r="AN12" s="4"/>
     </row>
-    <row r="13" spans="2:40" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
@@ -2669,7 +2675,7 @@
       <c r="AM13" s="4"/>
       <c r="AN13" s="4"/>
     </row>
-    <row r="14" spans="2:40" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
@@ -2710,7 +2716,7 @@
       <c r="AM14" s="4"/>
       <c r="AN14" s="4"/>
     </row>
-    <row r="15" spans="2:40" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
@@ -2751,7 +2757,7 @@
       <c r="AM15" s="4"/>
       <c r="AN15" s="4"/>
     </row>
-    <row r="16" spans="2:40" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
